--- a/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_PM10.xlsx
+++ b/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>2.775189746133739</v>
+        <v>1.632622511513607</v>
       </c>
       <c r="C2">
-        <v>70.73323221905815</v>
+        <v>41.61180956863795</v>
       </c>
       <c r="D2">
-        <v>0.008845697340692422</v>
+        <v>0.005203854845806476</v>
       </c>
       <c r="E2">
-        <v>3.199500496857631</v>
+        <v>1.882241221179911</v>
       </c>
       <c r="F2">
-        <v>2.635770032709822</v>
+        <v>1.550602980055705</v>
       </c>
       <c r="G2">
-        <v>17.81141654252495</v>
+        <v>10.47831761766344</v>
       </c>
       <c r="H2">
-        <v>1.017826619925287</v>
+        <v>0.5987794725830425</v>
       </c>
       <c r="I2">
-        <v>28.68632635643085</v>
+        <v>16.87594235579096</v>
       </c>
       <c r="J2">
-        <v>4.334874362744081</v>
+        <v>2.550172822978618</v>
       </c>
       <c r="K2">
-        <v>21.83202325358392</v>
+        <v>12.84360922900728</v>
       </c>
       <c r="L2">
-        <v>19.17093531851939</v>
+        <v>11.27811192419912</v>
       </c>
       <c r="M2">
-        <v>116.7663744183983</v>
+        <v>68.69274856931415</v>
       </c>
       <c r="N2">
-        <v>0.1626329791156231</v>
+        <v>0.09567571485466744</v>
       </c>
       <c r="O2">
-        <v>2.570268987670286</v>
+        <v>1.512069225450927</v>
       </c>
       <c r="P2">
-        <v>291.7052170310127</v>
+        <v>171.6079070680751</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>2.775189746133739</v>
+        <v>1.632622511513607</v>
       </c>
       <c r="C3">
-        <v>70.73323221905815</v>
+        <v>41.61180956863795</v>
       </c>
       <c r="D3">
-        <v>0.01326854601103864</v>
+        <v>0.007805782268709712</v>
       </c>
       <c r="E3">
-        <v>4.799250745286445</v>
+        <v>2.823361831769867</v>
       </c>
       <c r="F3">
-        <v>3.178428568855962</v>
+        <v>1.869844770067174</v>
       </c>
       <c r="G3">
-        <v>21.47847288951538</v>
+        <v>12.63561830365297</v>
       </c>
       <c r="H3">
-        <v>0.9989779788155593</v>
+        <v>0.587690963831505</v>
       </c>
       <c r="I3">
-        <v>28.15509809057102</v>
+        <v>16.56342490475778</v>
       </c>
       <c r="J3">
-        <v>5.144050910456309</v>
+        <v>3.02620508326796</v>
       </c>
       <c r="K3">
-        <v>25.9073342609196</v>
+        <v>15.24108295175531</v>
       </c>
       <c r="L3">
-        <v>18.30824322918601</v>
+        <v>10.77059688761016</v>
       </c>
       <c r="M3">
-        <v>111.5118875695704</v>
+        <v>65.60157488369501</v>
       </c>
       <c r="N3">
-        <v>0.1084219860770821</v>
+        <v>0.06378380990311165</v>
       </c>
       <c r="O3">
-        <v>1.713512658446857</v>
+        <v>1.008046150300618</v>
       </c>
       <c r="P3">
-        <v>294.8253693989035</v>
+        <v>173.4434684030317</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>3.286169854873586</v>
+        <v>1.933228129427323</v>
       </c>
       <c r="C4">
-        <v>83.7569451890156</v>
+        <v>49.27355846630044</v>
       </c>
       <c r="D4">
-        <v>0.01105712167586553</v>
+        <v>0.006504818557258096</v>
       </c>
       <c r="E4">
-        <v>3.999375621072037</v>
+        <v>2.352801526474889</v>
       </c>
       <c r="F4">
-        <v>3.566041808960347</v>
+        <v>2.097874620075365</v>
       </c>
       <c r="G4">
-        <v>24.09779885165141</v>
+        <v>14.17654736507407</v>
       </c>
       <c r="H4">
-        <v>1.14976710769338</v>
+        <v>0.6763990338438073</v>
       </c>
       <c r="I4">
-        <v>32.40492421744965</v>
+        <v>19.06356451302313</v>
       </c>
       <c r="J4">
-        <v>5.779832483658776</v>
+        <v>3.400230430638158</v>
       </c>
       <c r="K4">
-        <v>29.1093643381119</v>
+        <v>17.12481230534304</v>
       </c>
       <c r="L4">
-        <v>11.11914248474124</v>
+        <v>6.541304916035488</v>
       </c>
       <c r="M4">
-        <v>67.72449716267104</v>
+        <v>39.84179417020221</v>
       </c>
       <c r="N4">
-        <v>0.3252659582312463</v>
+        <v>0.1913514297093349</v>
       </c>
       <c r="O4">
-        <v>5.140537975340572</v>
+        <v>3.024138450901854</v>
       </c>
       <c r="P4">
-        <v>271.4707201751467</v>
+        <v>159.7041101756064</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>3.763084623030774</v>
+        <v>2.213793372813459</v>
       </c>
       <c r="C5">
-        <v>95.91241062764266</v>
+        <v>56.42452410411874</v>
       </c>
       <c r="D5">
-        <v>0.00707655787255394</v>
+        <v>0.004163083876645182</v>
       </c>
       <c r="E5">
-        <v>2.559600397486104</v>
+        <v>1.505792976943929</v>
       </c>
       <c r="F5">
-        <v>3.643564456981225</v>
+        <v>2.143480590077004</v>
       </c>
       <c r="G5">
-        <v>24.62166404407862</v>
+        <v>14.48473317735829</v>
       </c>
       <c r="H5">
-        <v>1.244010313242017</v>
+        <v>0.7318415776014966</v>
       </c>
       <c r="I5">
-        <v>35.06106554674881</v>
+        <v>20.62615176818895</v>
       </c>
       <c r="J5">
-        <v>4.190378550652613</v>
+        <v>2.465167062212664</v>
       </c>
       <c r="K5">
-        <v>21.10428914513113</v>
+        <v>12.4154889213737</v>
       </c>
       <c r="L5">
-        <v>7.668374127407759</v>
+        <v>4.511244769679648</v>
       </c>
       <c r="M5">
-        <v>46.70654976735933</v>
+        <v>27.47709942772565</v>
       </c>
       <c r="N5">
-        <v>0.144562648102776</v>
+        <v>0.08504507987081551</v>
       </c>
       <c r="O5">
-        <v>2.28468354459581</v>
+        <v>1.344061533734158</v>
       </c>
       <c r="P5">
-        <v>248.9113143503322</v>
+        <v>146.4325874455752</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>4.535232342904319</v>
+        <v>2.668041862105297</v>
       </c>
       <c r="C6">
-        <v>115.5926880044673</v>
+        <v>68.00227799391983</v>
       </c>
       <c r="D6">
-        <v>0.01547997034621174</v>
+        <v>0.009106745980161337</v>
       </c>
       <c r="E6">
-        <v>5.599125869500852</v>
+        <v>3.293922137064845</v>
       </c>
       <c r="F6">
-        <v>3.643564456981225</v>
+        <v>2.143480590077004</v>
       </c>
       <c r="G6">
-        <v>24.62166404407862</v>
+        <v>14.48473317735829</v>
       </c>
       <c r="H6">
-        <v>1.07437254325447</v>
+        <v>0.632044998837656</v>
       </c>
       <c r="I6">
-        <v>30.28001115401034</v>
+        <v>17.81349470889045</v>
       </c>
       <c r="J6">
-        <v>3.150008703594033</v>
+        <v>1.853125584697795</v>
       </c>
       <c r="K6">
-        <v>15.86460356427099</v>
+        <v>9.333022706411954</v>
       </c>
       <c r="L6">
-        <v>3.73833238711128</v>
+        <v>2.199231825218828</v>
       </c>
       <c r="M6">
-        <v>22.76944301158766</v>
+        <v>13.39508597101626</v>
       </c>
       <c r="N6">
-        <v>0.4336879443083282</v>
+        <v>0.2551352396124466</v>
       </c>
       <c r="O6">
-        <v>6.854050633787428</v>
+        <v>4.032184601202473</v>
       </c>
       <c r="P6">
-        <v>238.172264630203</v>
+        <v>140.1148881423933</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>4.249083482010005</v>
+        <v>2.499702716073617</v>
       </c>
       <c r="C7">
-        <v>108.2994087412911</v>
+        <v>63.71169861122883</v>
       </c>
       <c r="D7">
-        <v>0.008403412473657805</v>
+        <v>0.004943662103516153</v>
       </c>
       <c r="E7">
-        <v>3.039525472014748</v>
+        <v>1.788129160120916</v>
       </c>
       <c r="F7">
-        <v>2.480724736668067</v>
+        <v>1.459391040052428</v>
       </c>
       <c r="G7">
-        <v>16.76368615767054</v>
+        <v>9.861945993095009</v>
       </c>
       <c r="H7">
-        <v>1.545588570997658</v>
+        <v>0.9092577176261014</v>
       </c>
       <c r="I7">
-        <v>43.56071780050612</v>
+        <v>25.6264309847196</v>
       </c>
       <c r="J7">
-        <v>1.849546394770808</v>
+        <v>1.08807373780421</v>
       </c>
       <c r="K7">
-        <v>9.314996588195806</v>
+        <v>5.479939937709772</v>
       </c>
       <c r="L7">
-        <v>1.91709353185194</v>
+        <v>1.127811192419912</v>
       </c>
       <c r="M7">
-        <v>11.67663744183983</v>
+        <v>6.869274856931413</v>
       </c>
       <c r="N7">
-        <v>0.1084219860770821</v>
+        <v>0.06378380990311165</v>
       </c>
       <c r="O7">
-        <v>1.713512658446857</v>
+        <v>1.008046150300618</v>
       </c>
       <c r="P7">
-        <v>206.5273469748143</v>
+        <v>121.4984295700891</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>3.170347696892554</v>
+        <v>1.865090856033548</v>
       </c>
       <c r="C8">
-        <v>80.80490358249192</v>
+        <v>47.53689538283027</v>
       </c>
       <c r="D8">
-        <v>0.00707655787255394</v>
+        <v>0.004163083876645182</v>
       </c>
       <c r="E8">
-        <v>2.559600397486104</v>
+        <v>1.505792976943929</v>
       </c>
       <c r="F8">
-        <v>2.325679440626312</v>
+        <v>1.368179100049151</v>
       </c>
       <c r="G8">
-        <v>15.71595577281613</v>
+        <v>9.245574368526567</v>
       </c>
       <c r="H8">
-        <v>1.281707595461472</v>
+        <v>0.7540185951045721</v>
       </c>
       <c r="I8">
-        <v>36.12352207846848</v>
+        <v>21.25118667025528</v>
       </c>
       <c r="J8">
-        <v>1.4160589584964</v>
+        <v>0.8330564555063483</v>
       </c>
       <c r="K8">
-        <v>7.131794262837416</v>
+        <v>4.195579014809044</v>
       </c>
       <c r="L8">
-        <v>2.492221591407522</v>
+        <v>1.466154550145885</v>
       </c>
       <c r="M8">
-        <v>15.17962867439178</v>
+        <v>8.93005731401084</v>
       </c>
       <c r="N8">
-        <v>0.09035165506423504</v>
+        <v>0.05315317491925969</v>
       </c>
       <c r="O8">
-        <v>1.427927215372381</v>
+        <v>0.8400384585838486</v>
       </c>
       <c r="P8">
-        <v>169.7267754796853</v>
+        <v>99.84894000159518</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>2.502667021472488</v>
+        <v>1.472299515292959</v>
       </c>
       <c r="C9">
-        <v>63.78725196841412</v>
+        <v>37.52554348988465</v>
       </c>
       <c r="D9">
-        <v>0.009730267074761668</v>
+        <v>0.005724240330387123</v>
       </c>
       <c r="E9">
-        <v>3.519450546543392</v>
+        <v>2.070465343297903</v>
       </c>
       <c r="F9">
-        <v>1.705498256459297</v>
+        <v>1.003331340036045</v>
       </c>
       <c r="G9">
-        <v>11.5250342333985</v>
+        <v>6.780087870252815</v>
       </c>
       <c r="H9">
-        <v>1.357102159900383</v>
+        <v>0.7983726301107231</v>
       </c>
       <c r="I9">
-        <v>38.2484351419078</v>
+        <v>22.50125647438794</v>
       </c>
       <c r="J9">
-        <v>0.8958740349671099</v>
+        <v>0.5270357167489141</v>
       </c>
       <c r="K9">
-        <v>4.511951472407344</v>
+        <v>2.654345907328171</v>
       </c>
       <c r="L9">
-        <v>1.91709353185194</v>
+        <v>1.127811192419912</v>
       </c>
       <c r="M9">
-        <v>11.67663744183983</v>
+        <v>6.869274856931413</v>
       </c>
       <c r="N9">
-        <v>0.05421099303854103</v>
+        <v>0.03189190495155583</v>
       </c>
       <c r="O9">
-        <v>0.8567563292234285</v>
+        <v>0.5040230751503091</v>
       </c>
       <c r="P9">
-        <v>142.5676933984989</v>
+        <v>83.8714635571237</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>1.850883504990997</v>
+        <v>1.088860349331907</v>
       </c>
       <c r="C10">
-        <v>47.17478253562387</v>
+        <v>27.75255711819962</v>
       </c>
       <c r="D10">
-        <v>0.00663427300551932</v>
+        <v>0.003902891134354856</v>
       </c>
       <c r="E10">
-        <v>2.399625372643222</v>
+        <v>1.411680915884934</v>
       </c>
       <c r="F10">
-        <v>0.4651358881252627</v>
+        <v>0.2736358200098302</v>
       </c>
       <c r="G10">
-        <v>3.143191154563227</v>
+        <v>1.849114873705313</v>
       </c>
       <c r="H10">
-        <v>1.036675261035015</v>
+        <v>0.6098679813345803</v>
       </c>
       <c r="I10">
-        <v>29.21755462229068</v>
+        <v>17.18845980682413</v>
       </c>
       <c r="J10">
-        <v>0.8669748725488162</v>
+        <v>0.5100345645957237</v>
       </c>
       <c r="K10">
-        <v>4.366404650716785</v>
+        <v>2.568721845801456</v>
       </c>
       <c r="L10">
-        <v>1.821238855259343</v>
+        <v>1.071420632798916</v>
       </c>
       <c r="M10">
-        <v>11.09280556974784</v>
+        <v>6.525811114084845</v>
       </c>
       <c r="N10">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O10">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P10">
-        <v>103.7455623346379</v>
+        <v>61.03270624040622</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>1.099174989467045</v>
+        <v>0.6466360847566172</v>
       </c>
       <c r="C11">
-        <v>28.0154536775975</v>
+        <v>16.48127318430504</v>
       </c>
       <c r="D11">
-        <v>0.006191988138484697</v>
+        <v>0.003642698392064533</v>
       </c>
       <c r="E11">
-        <v>2.239650347800341</v>
+        <v>1.317568854825939</v>
       </c>
       <c r="F11">
-        <v>0.8527491282296484</v>
+        <v>0.5016656700180224</v>
       </c>
       <c r="G11">
-        <v>5.76251711669925</v>
+        <v>3.390043935126407</v>
       </c>
       <c r="H11">
-        <v>0.6031565155112811</v>
+        <v>0.3548322800492104</v>
       </c>
       <c r="I11">
-        <v>16.99930450751458</v>
+        <v>10.00055843306131</v>
       </c>
       <c r="J11">
-        <v>0.8380757101305223</v>
+        <v>0.4930334124425327</v>
       </c>
       <c r="K11">
-        <v>4.220857829026225</v>
+        <v>2.483097784274741</v>
       </c>
       <c r="L11">
-        <v>1.533674825481552</v>
+        <v>0.9022489539359295</v>
       </c>
       <c r="M11">
-        <v>9.341309953471868</v>
+        <v>5.495419885545132</v>
       </c>
       <c r="N11">
-        <v>0.03614066202569401</v>
+        <v>0.02126126996770388</v>
       </c>
       <c r="O11">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="P11">
-        <v>72.11942813724293</v>
+        <v>42.42729783013419</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,43 +980,43 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.6881198797696586</v>
+        <v>0.4048155654571385</v>
       </c>
       <c r="C12">
-        <v>17.53860013287612</v>
+        <v>10.31782184885213</v>
       </c>
       <c r="D12">
-        <v>0.005307418404415455</v>
+        <v>0.003122312907483885</v>
       </c>
       <c r="E12">
-        <v>1.919700298114578</v>
+        <v>1.129344732707947</v>
       </c>
       <c r="F12">
-        <v>0.1550452960417542</v>
+        <v>0.09121194000327677</v>
       </c>
       <c r="G12">
-        <v>1.047730384854409</v>
+        <v>0.6163716245684381</v>
       </c>
       <c r="H12">
-        <v>0.3392755399750957</v>
+        <v>0.1995931575276808</v>
       </c>
       <c r="I12">
-        <v>9.56210878547695</v>
+        <v>5.625314118596985</v>
       </c>
       <c r="J12">
-        <v>0.3178907866012328</v>
+        <v>0.1870126736850986</v>
       </c>
       <c r="K12">
-        <v>1.601015038596155</v>
+        <v>0.9418646767938671</v>
       </c>
       <c r="L12">
-        <v>1.054401442518566</v>
+        <v>0.6202961558309515</v>
       </c>
       <c r="M12">
-        <v>6.42215059301191</v>
+        <v>3.778101171312278</v>
       </c>
       <c r="P12">
-        <v>40.65134559624083</v>
+        <v>23.91486997824327</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,43 +1024,43 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.4042420415808556</v>
+        <v>0.2378124443939624</v>
       </c>
       <c r="C13">
-        <v>10.30320403845528</v>
+        <v>6.061294683484095</v>
       </c>
       <c r="D13">
-        <v>0.002653709202207727</v>
+        <v>0.001561156453741943</v>
       </c>
       <c r="E13">
-        <v>0.959850149057289</v>
+        <v>0.5646723663539736</v>
       </c>
       <c r="F13">
-        <v>0.1550452960417542</v>
+        <v>0.09121194000327677</v>
       </c>
       <c r="G13">
-        <v>1.047730384854409</v>
+        <v>0.6163716245684381</v>
       </c>
       <c r="H13">
-        <v>0.1696377699875478</v>
+        <v>0.09979657876384039</v>
       </c>
       <c r="I13">
-        <v>4.781054392738475</v>
+        <v>2.812657059298493</v>
       </c>
       <c r="J13">
-        <v>0.8380757101305223</v>
+        <v>0.4930334124425327</v>
       </c>
       <c r="K13">
-        <v>4.220857829026225</v>
+        <v>2.483097784274741</v>
       </c>
       <c r="L13">
-        <v>1.533674825481552</v>
+        <v>0.9022489539359295</v>
       </c>
       <c r="M13">
-        <v>9.341309953471868</v>
+        <v>5.495419885545132</v>
       </c>
       <c r="P13">
-        <v>33.75733610002798</v>
+        <v>19.85917788951816</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1068,43 +1068,43 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.2452704521951258</v>
+        <v>0.144290696598584</v>
       </c>
       <c r="C14">
-        <v>6.251382225579604</v>
+        <v>3.677639470877988</v>
       </c>
       <c r="D14">
-        <v>0.002211424335173105</v>
+        <v>0.001300963711451619</v>
       </c>
       <c r="E14">
-        <v>0.7998751242144077</v>
+        <v>0.4705603052949778</v>
       </c>
       <c r="F14">
-        <v>0.2325679440626313</v>
+        <v>0.1368179100049151</v>
       </c>
       <c r="G14">
-        <v>1.571595577281613</v>
+        <v>0.9245574368526567</v>
       </c>
       <c r="H14">
-        <v>0.01884864110972754</v>
+        <v>0.01108850875153783</v>
       </c>
       <c r="I14">
-        <v>0.5312282658598305</v>
+        <v>0.3125174510331659</v>
       </c>
       <c r="J14">
-        <v>0.8669748725488162</v>
+        <v>0.5100345645957237</v>
       </c>
       <c r="K14">
-        <v>4.366404650716785</v>
+        <v>2.568721845801456</v>
       </c>
       <c r="L14">
-        <v>1.246110795703761</v>
+        <v>0.7330772750729425</v>
       </c>
       <c r="M14">
-        <v>7.589814337195892</v>
+        <v>4.46502865700542</v>
       </c>
       <c r="P14">
-        <v>23.72228431080337</v>
+        <v>13.95563508560082</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1112,49 +1112,49 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.2157471570234903</v>
+        <v>0.1269223720080137</v>
       </c>
       <c r="C15">
-        <v>5.498901031759837</v>
+        <v>3.234960645679711</v>
       </c>
       <c r="D15">
-        <v>0.00398056380331159</v>
+        <v>0.002341734680612914</v>
       </c>
       <c r="E15">
-        <v>1.439775223585933</v>
+        <v>0.8470085495309601</v>
       </c>
       <c r="F15">
-        <v>0.1550452960417542</v>
+        <v>0.09121194000327677</v>
       </c>
       <c r="G15">
-        <v>1.047730384854409</v>
+        <v>0.6163716245684381</v>
       </c>
       <c r="H15">
-        <v>0.05654592332918261</v>
+        <v>0.03326552625461347</v>
       </c>
       <c r="I15">
-        <v>1.593684797579491</v>
+        <v>0.9375523530994976</v>
       </c>
       <c r="J15">
-        <v>0.5201849235292898</v>
+        <v>0.3060207387574342</v>
       </c>
       <c r="K15">
-        <v>2.619842790430071</v>
+        <v>1.541233107480874</v>
       </c>
       <c r="L15">
-        <v>1.246110795703761</v>
+        <v>0.7330772750729425</v>
       </c>
       <c r="M15">
-        <v>7.589814337195892</v>
+        <v>4.46502865700542</v>
       </c>
       <c r="N15">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O15">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P15">
-        <v>22.29101899892375</v>
+        <v>13.11363285084241</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1162,43 +1162,43 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.1907659072628758</v>
+        <v>0.1122260973544541</v>
       </c>
       <c r="C16">
-        <v>4.862186175450804</v>
+        <v>2.860386255127325</v>
       </c>
       <c r="D16">
-        <v>0.001326854601103864</v>
+        <v>0.0007805782268709713</v>
       </c>
       <c r="E16">
-        <v>0.4799250745286445</v>
+        <v>0.2823361831769868</v>
       </c>
       <c r="F16">
-        <v>0.1550452960417542</v>
+        <v>0.09121194000327677</v>
       </c>
       <c r="G16">
-        <v>1.047730384854409</v>
+        <v>0.6163716245684381</v>
       </c>
       <c r="H16">
-        <v>0.1507891288778203</v>
+        <v>0.0887080700123026</v>
       </c>
       <c r="I16">
-        <v>4.249826126878644</v>
+        <v>2.500139608265327</v>
       </c>
       <c r="J16">
-        <v>0.462386598692702</v>
+        <v>0.2720184344510525</v>
       </c>
       <c r="K16">
-        <v>2.328749147048951</v>
+        <v>1.369984984427443</v>
       </c>
       <c r="L16">
-        <v>1.246110795703761</v>
+        <v>0.7330772750729425</v>
       </c>
       <c r="M16">
-        <v>7.589814337195892</v>
+        <v>4.46502865700542</v>
       </c>
       <c r="P16">
-        <v>22.76465582713736</v>
+        <v>13.39226970769184</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1206,49 +1206,49 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.4928119270957619</v>
+        <v>0.2899174181656734</v>
       </c>
       <c r="C17">
-        <v>12.56064761991458</v>
+        <v>7.389331159078918</v>
       </c>
       <c r="D17">
-        <v>0.00398056380331159</v>
+        <v>0.002341734680612914</v>
       </c>
       <c r="E17">
-        <v>1.439775223585933</v>
+        <v>0.8470085495309601</v>
       </c>
       <c r="F17">
-        <v>0.6201811841670168</v>
+        <v>0.3648477600131071</v>
       </c>
       <c r="G17">
-        <v>4.190921539417634</v>
+        <v>2.465486498273752</v>
       </c>
       <c r="H17">
-        <v>0.1130918466583652</v>
+        <v>0.06653105250922695</v>
       </c>
       <c r="I17">
-        <v>3.187369595158982</v>
+        <v>1.875104706198995</v>
       </c>
       <c r="J17">
-        <v>1.127067334313461</v>
+        <v>0.6630449339744403</v>
       </c>
       <c r="K17">
-        <v>5.67632604593182</v>
+        <v>3.339338399541893</v>
       </c>
       <c r="L17">
-        <v>2.20465756162973</v>
+        <v>1.296982871282899</v>
       </c>
       <c r="M17">
-        <v>13.42813305811581</v>
+        <v>7.89966608547113</v>
       </c>
       <c r="N17">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O17">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P17">
-        <v>45.34861927387972</v>
+        <v>26.67823949542223</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1256,49 +1256,49 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>1.289940896729921</v>
+        <v>0.7588621821110708</v>
       </c>
       <c r="C18">
-        <v>32.87763985304829</v>
+        <v>19.34165943943238</v>
       </c>
       <c r="D18">
-        <v>0.003095994069242348</v>
+        <v>0.001821349196032266</v>
       </c>
       <c r="E18">
-        <v>1.119825173900171</v>
+        <v>0.6587844274129693</v>
       </c>
       <c r="F18">
-        <v>1.395407664375789</v>
+        <v>0.8209074600294911</v>
       </c>
       <c r="G18">
-        <v>9.429573463689678</v>
+        <v>5.547344621115943</v>
       </c>
       <c r="H18">
-        <v>0.6785510799501914</v>
+        <v>0.3991863150553616</v>
       </c>
       <c r="I18">
-        <v>19.1242175709539</v>
+        <v>11.25062823719397</v>
       </c>
       <c r="J18">
-        <v>1.329361471241518</v>
+        <v>0.7820529990467763</v>
       </c>
       <c r="K18">
-        <v>6.695153797765736</v>
+        <v>3.938706830228899</v>
       </c>
       <c r="L18">
-        <v>4.888588506222448</v>
+        <v>2.875918540670775</v>
       </c>
       <c r="M18">
-        <v>29.77542547669156</v>
+        <v>17.51665088517511</v>
       </c>
       <c r="N18">
-        <v>0.07228132405138801</v>
+        <v>0.04252253993540776</v>
       </c>
       <c r="O18">
-        <v>1.142341772297905</v>
+        <v>0.6720307668670789</v>
       </c>
       <c r="P18">
-        <v>109.8214040449877</v>
+        <v>64.60707659347126</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1306,49 +1306,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>2.482227817122896</v>
+        <v>1.46027529057641</v>
       </c>
       <c r="C19">
-        <v>63.26630344961578</v>
+        <v>37.21907353397815</v>
       </c>
       <c r="D19">
-        <v>0.007518842739588562</v>
+        <v>0.004423276618935505</v>
       </c>
       <c r="E19">
-        <v>2.719575422328985</v>
+        <v>1.599905038002925</v>
       </c>
       <c r="F19">
-        <v>2.015588848542805</v>
+        <v>1.185755220042598</v>
       </c>
       <c r="G19">
-        <v>13.62049500310732</v>
+        <v>8.012831119389693</v>
       </c>
       <c r="H19">
-        <v>1.338253518790655</v>
+        <v>0.7872841213591855</v>
       </c>
       <c r="I19">
-        <v>37.71720687604797</v>
+        <v>22.18873902335478</v>
       </c>
       <c r="J19">
-        <v>2.543126292809862</v>
+        <v>1.496101389480789</v>
       </c>
       <c r="K19">
-        <v>12.80812030876924</v>
+        <v>7.534917414350937</v>
       </c>
       <c r="L19">
-        <v>6.901536714666982</v>
+        <v>4.060120292711685</v>
       </c>
       <c r="M19">
-        <v>42.03589479062339</v>
+        <v>24.72938948495308</v>
       </c>
       <c r="N19">
-        <v>0.1084219860770821</v>
+        <v>0.06378380990311165</v>
       </c>
       <c r="O19">
-        <v>1.713512658446857</v>
+        <v>1.008046150300618</v>
       </c>
       <c r="P19">
-        <v>189.2777825296894</v>
+        <v>111.3506451650229</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1356,49 +1356,49 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>4.271793709065109</v>
+        <v>2.51306296575867</v>
       </c>
       <c r="C20">
-        <v>108.8782404288448</v>
+        <v>64.05222078445827</v>
       </c>
       <c r="D20">
-        <v>0.008403412473657805</v>
+        <v>0.004943662103516153</v>
       </c>
       <c r="E20">
-        <v>3.039525472014748</v>
+        <v>1.788129160120916</v>
       </c>
       <c r="F20">
-        <v>2.713292680730699</v>
+        <v>1.596208950057344</v>
       </c>
       <c r="G20">
-        <v>18.33528173495215</v>
+        <v>10.78650342994766</v>
       </c>
       <c r="H20">
-        <v>1.620983135436568</v>
+        <v>0.9536117526322527</v>
       </c>
       <c r="I20">
-        <v>45.68563086394543</v>
+        <v>26.87650078885226</v>
       </c>
       <c r="J20">
-        <v>3.150008703594033</v>
+        <v>1.853125584697795</v>
       </c>
       <c r="K20">
-        <v>15.86460356427099</v>
+        <v>9.333022706411954</v>
       </c>
       <c r="L20">
-        <v>9.681322335852295</v>
+        <v>5.695446521720557</v>
       </c>
       <c r="M20">
-        <v>58.96701908129115</v>
+        <v>34.68983802750365</v>
       </c>
       <c r="N20">
-        <v>0.1084219860770821</v>
+        <v>0.06378380990311165</v>
       </c>
       <c r="O20">
-        <v>1.713512658446857</v>
+        <v>1.008046150300618</v>
       </c>
       <c r="P20">
-        <v>274.0380397669956</v>
+        <v>161.2144442944686</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1406,49 +1406,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>4.782773817804955</v>
+        <v>2.813668583672386</v>
       </c>
       <c r="C21">
-        <v>121.9019533988023</v>
+        <v>71.71396968212076</v>
       </c>
       <c r="D21">
-        <v>0.009287982207727049</v>
+        <v>0.0054640475880968</v>
       </c>
       <c r="E21">
-        <v>3.359475521700511</v>
+        <v>1.976353282238907</v>
       </c>
       <c r="F21">
-        <v>3.566041808960347</v>
+        <v>2.097874620075365</v>
       </c>
       <c r="G21">
-        <v>24.09779885165141</v>
+        <v>14.17654736507407</v>
       </c>
       <c r="H21">
-        <v>1.37595080101011</v>
+        <v>0.8094611388622611</v>
       </c>
       <c r="I21">
-        <v>38.77966340776763</v>
+        <v>22.81377392542111</v>
       </c>
       <c r="J21">
-        <v>3.58349613986844</v>
+        <v>2.108142866995657</v>
       </c>
       <c r="K21">
-        <v>18.04780588962938</v>
+        <v>10.61738362931269</v>
       </c>
       <c r="L21">
-        <v>11.59841586770423</v>
+        <v>6.823257714140466</v>
       </c>
       <c r="M21">
-        <v>70.643656523131</v>
+        <v>41.55911288443507</v>
       </c>
       <c r="N21">
-        <v>0.7408835715267275</v>
+        <v>0.4358560343379295</v>
       </c>
       <c r="O21">
-        <v>11.70900316605352</v>
+        <v>6.888315360387558</v>
       </c>
       <c r="P21">
-        <v>314.1962067478183</v>
+        <v>184.8391811346623</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1456,49 +1456,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>3.340674399805835</v>
+        <v>1.965292728671453</v>
       </c>
       <c r="C22">
-        <v>85.14614123914447</v>
+        <v>50.0908116820511</v>
       </c>
       <c r="D22">
-        <v>0.0145954006121425</v>
+        <v>0.008586360495580689</v>
       </c>
       <c r="E22">
-        <v>5.27917581981509</v>
+        <v>3.105698014946854</v>
       </c>
       <c r="F22">
-        <v>3.566041808960347</v>
+        <v>2.097874620075365</v>
       </c>
       <c r="G22">
-        <v>24.09779885165141</v>
+        <v>14.17654736507407</v>
       </c>
       <c r="H22">
-        <v>1.244010313242017</v>
+        <v>0.7318415776014966</v>
       </c>
       <c r="I22">
-        <v>35.06106554674881</v>
+        <v>20.62615176818895</v>
       </c>
       <c r="J22">
-        <v>4.91285761110996</v>
+        <v>2.890195866042434</v>
       </c>
       <c r="K22">
-        <v>24.74295968739512</v>
+        <v>14.55609045954158</v>
       </c>
       <c r="L22">
-        <v>20.70461014400093</v>
+        <v>12.18036087813505</v>
       </c>
       <c r="M22">
-        <v>126.1076843718702</v>
+        <v>74.18816845485929</v>
       </c>
       <c r="N22">
-        <v>0.1084219860770821</v>
+        <v>0.06378380990311165</v>
       </c>
       <c r="O22">
-        <v>1.713512658446857</v>
+        <v>1.008046150300618</v>
       </c>
       <c r="P22">
-        <v>336.0395498388802</v>
+        <v>197.689449735887</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1506,49 +1506,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>2.350508500203289</v>
+        <v>1.382785842403096</v>
       </c>
       <c r="C23">
-        <v>59.90907966180455</v>
+        <v>35.24404492924737</v>
       </c>
       <c r="D23">
-        <v>0.01061483680883091</v>
+        <v>0.006244625814967771</v>
       </c>
       <c r="E23">
-        <v>3.839400596229156</v>
+        <v>2.258689465415894</v>
       </c>
       <c r="F23">
-        <v>2.868337976772453</v>
+        <v>1.68742089006062</v>
       </c>
       <c r="G23">
-        <v>19.38301211980656</v>
+        <v>11.4028750545161</v>
       </c>
       <c r="H23">
-        <v>1.017826619925287</v>
+        <v>0.5987794725830425</v>
       </c>
       <c r="I23">
-        <v>28.68632635643085</v>
+        <v>16.87594235579096</v>
       </c>
       <c r="J23">
-        <v>6.213319919933184</v>
+        <v>3.655247712936019</v>
       </c>
       <c r="K23">
-        <v>31.29256666347029</v>
+        <v>18.40917322824377</v>
       </c>
       <c r="L23">
-        <v>18.97922596533419</v>
+        <v>11.16533080495713</v>
       </c>
       <c r="M23">
-        <v>115.5987106742144</v>
+        <v>68.00582108362102</v>
       </c>
       <c r="N23">
-        <v>0.2168439721541641</v>
+        <v>0.1275676198062233</v>
       </c>
       <c r="O23">
-        <v>3.427025316893714</v>
+        <v>2.016092300601236</v>
       </c>
       <c r="P23">
-        <v>293.7927991799809</v>
+        <v>172.8360153859974</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1556,49 +1556,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>2.648012474625156</v>
+        <v>1.557805113277304</v>
       </c>
       <c r="C24">
-        <v>67.49177476875764</v>
+        <v>39.70488539855307</v>
       </c>
       <c r="D24">
-        <v>0.01636454008028099</v>
+        <v>0.009627131464741983</v>
       </c>
       <c r="E24">
-        <v>5.919075919186615</v>
+        <v>3.482146259182837</v>
       </c>
       <c r="F24">
-        <v>2.325679440626312</v>
+        <v>1.368179100049151</v>
       </c>
       <c r="G24">
-        <v>15.71595577281613</v>
+        <v>9.245574368526567</v>
       </c>
       <c r="H24">
-        <v>0.9612806965961043</v>
+        <v>0.5655139463284291</v>
       </c>
       <c r="I24">
-        <v>27.09264155885136</v>
+        <v>15.93839000269146</v>
       </c>
       <c r="J24">
-        <v>5.750933321240482</v>
+        <v>3.383229278484966</v>
       </c>
       <c r="K24">
-        <v>28.96381751642134</v>
+        <v>17.03918824381633</v>
       </c>
       <c r="L24">
-        <v>23.77195979496404</v>
+        <v>13.98485878600691</v>
       </c>
       <c r="M24">
-        <v>144.7903042788139</v>
+        <v>85.17900822594953</v>
       </c>
       <c r="N24">
-        <v>0.4698286063340222</v>
+        <v>0.2763965095801505</v>
       </c>
       <c r="O24">
-        <v>7.425221519936382</v>
+        <v>4.368199984636012</v>
       </c>
       <c r="P24">
-        <v>333.3428502092497</v>
+        <v>196.1030023485475</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1606,49 +1606,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>2.473143726300853</v>
+        <v>1.454931190702388</v>
       </c>
       <c r="C25">
-        <v>63.03477077459436</v>
+        <v>37.08286466468636</v>
       </c>
       <c r="D25">
-        <v>0.01503768547917712</v>
+        <v>0.008846553237871009</v>
       </c>
       <c r="E25">
-        <v>5.439150844657971</v>
+        <v>3.19981007600585</v>
       </c>
       <c r="F25">
-        <v>3.798609753022978</v>
+        <v>2.234692530080282</v>
       </c>
       <c r="G25">
-        <v>25.66939442893302</v>
+        <v>15.10110480192673</v>
       </c>
       <c r="H25">
-        <v>1.262858954351745</v>
+        <v>0.7429300863530343</v>
       </c>
       <c r="I25">
-        <v>35.59229381260864</v>
+        <v>20.93866921922212</v>
       </c>
       <c r="J25">
-        <v>4.941756773528253</v>
+        <v>2.907197018195624</v>
       </c>
       <c r="K25">
-        <v>24.88850650908568</v>
+        <v>14.6417145210683</v>
       </c>
       <c r="L25">
-        <v>23.29268641200106</v>
+        <v>13.70290598790193</v>
       </c>
       <c r="M25">
-        <v>141.871144918354</v>
+        <v>83.4616895117167</v>
       </c>
       <c r="N25">
-        <v>0.2168439721541641</v>
+        <v>0.1275676198062233</v>
       </c>
       <c r="O25">
-        <v>3.427025316893714</v>
+        <v>2.016092300601236</v>
       </c>
       <c r="P25">
-        <v>335.9232238819656</v>
+        <v>197.6210160815046</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1656,49 +1656,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>2.518564180411063</v>
+        <v>1.481651690072497</v>
       </c>
       <c r="C26">
-        <v>64.19243414970165</v>
+        <v>37.76390901114526</v>
       </c>
       <c r="D26">
-        <v>0.009287982207727049</v>
+        <v>0.0054640475880968</v>
       </c>
       <c r="E26">
-        <v>3.359475521700511</v>
+        <v>1.976353282238907</v>
       </c>
       <c r="F26">
-        <v>2.713292680730699</v>
+        <v>1.596208950057344</v>
       </c>
       <c r="G26">
-        <v>18.33528173495215</v>
+        <v>10.78650342994766</v>
       </c>
       <c r="H26">
-        <v>0.8858861321571943</v>
+        <v>0.5211599113222776</v>
       </c>
       <c r="I26">
-        <v>24.96772849541203</v>
+        <v>14.6883201985588</v>
       </c>
       <c r="J26">
-        <v>4.999555098364839</v>
+        <v>2.941199322502005</v>
       </c>
       <c r="K26">
-        <v>25.17960015246679</v>
+        <v>14.81296264412173</v>
       </c>
       <c r="L26">
-        <v>25.4973439736308</v>
+        <v>14.99988885918483</v>
       </c>
       <c r="M26">
-        <v>155.2992779764698</v>
+        <v>91.36135559718784</v>
       </c>
       <c r="N26">
-        <v>0.2168439721541641</v>
+        <v>0.1275676198062233</v>
       </c>
       <c r="O26">
-        <v>3.427025316893714</v>
+        <v>2.016092300601236</v>
       </c>
       <c r="P26">
-        <v>331.6015973672531</v>
+        <v>195.0786368643347</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1706,49 +1706,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>2.854675540826602</v>
+        <v>1.679383385411295</v>
       </c>
       <c r="C27">
-        <v>72.75914312549592</v>
+        <v>42.803637174941</v>
       </c>
       <c r="D27">
-        <v>0.00663427300551932</v>
+        <v>0.003902891134354856</v>
       </c>
       <c r="E27">
-        <v>2.399625372643222</v>
+        <v>1.411680915884934</v>
       </c>
       <c r="F27">
-        <v>5.349062713440524</v>
+        <v>3.146811930113049</v>
       </c>
       <c r="G27">
-        <v>36.14669827747713</v>
+        <v>21.2648210476111</v>
       </c>
       <c r="H27">
-        <v>0.9801293377058319</v>
+        <v>0.5766024550799668</v>
       </c>
       <c r="I27">
-        <v>27.62386982471118</v>
+        <v>16.25090745372463</v>
       </c>
       <c r="J27">
-        <v>4.999555098364839</v>
+        <v>2.941199322502005</v>
       </c>
       <c r="K27">
-        <v>25.17960015246679</v>
+        <v>14.81296264412173</v>
       </c>
       <c r="L27">
-        <v>16.10358566755628</v>
+        <v>9.473614016327264</v>
       </c>
       <c r="M27">
-        <v>98.08375451145459</v>
+        <v>57.7019087982239</v>
       </c>
       <c r="N27">
-        <v>0.3614066202569401</v>
+        <v>0.2126126996770387</v>
       </c>
       <c r="O27">
-        <v>5.711708861489523</v>
+        <v>3.360153834335394</v>
       </c>
       <c r="P27">
-        <v>298.5594493768949</v>
+        <v>175.6401985690877</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1756,49 +1756,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>2.972768721513146</v>
+        <v>1.748856683773578</v>
       </c>
       <c r="C28">
-        <v>75.76906790077501</v>
+        <v>44.57435247573411</v>
       </c>
       <c r="D28">
-        <v>0.01238397627696939</v>
+        <v>0.007285396784129066</v>
       </c>
       <c r="E28">
-        <v>4.479300695600682</v>
+        <v>2.635137709651877</v>
       </c>
       <c r="F28">
-        <v>2.635770032709822</v>
+        <v>1.550602980055705</v>
       </c>
       <c r="G28">
-        <v>17.81141654252495</v>
+        <v>10.47831761766344</v>
       </c>
       <c r="H28">
-        <v>0.923583414376649</v>
+        <v>0.5433369288253534</v>
       </c>
       <c r="I28">
-        <v>26.0301850271317</v>
+        <v>15.31335510062513</v>
       </c>
       <c r="J28">
-        <v>5.346345047384368</v>
+        <v>3.145213148340296</v>
       </c>
       <c r="K28">
-        <v>26.92616201275351</v>
+        <v>15.84045138244231</v>
       </c>
       <c r="L28">
-        <v>20.51290079081574</v>
+        <v>12.06757975889306</v>
       </c>
       <c r="M28">
-        <v>124.9400206276862</v>
+        <v>73.50124096916616</v>
       </c>
       <c r="N28">
-        <v>0.2710549651927052</v>
+        <v>0.1594595247577791</v>
       </c>
       <c r="O28">
-        <v>4.283781646117143</v>
+        <v>2.520115375751545</v>
       </c>
       <c r="P28">
-        <v>312.9147414008586</v>
+        <v>184.0853050524645</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1806,49 +1806,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>3.118114174665815</v>
+        <v>1.834362281757923</v>
       </c>
       <c r="C29">
-        <v>79.47359070111848</v>
+        <v>46.75369438440257</v>
       </c>
       <c r="D29">
-        <v>0.006191988138484697</v>
+        <v>0.003642698392064533</v>
       </c>
       <c r="E29">
-        <v>2.239650347800341</v>
+        <v>1.317568854825939</v>
       </c>
       <c r="F29">
-        <v>4.031177697085609</v>
+        <v>2.371510440085197</v>
       </c>
       <c r="G29">
-        <v>27.24099000621463</v>
+        <v>16.02566223877939</v>
       </c>
       <c r="H29">
-        <v>1.262858954351745</v>
+        <v>0.7429300863530343</v>
       </c>
       <c r="I29">
-        <v>35.59229381260864</v>
+        <v>20.93866921922212</v>
       </c>
       <c r="J29">
-        <v>4.826160123855078</v>
+        <v>2.839192409582861</v>
       </c>
       <c r="K29">
-        <v>24.30631922232344</v>
+        <v>14.29921827496144</v>
       </c>
       <c r="L29">
-        <v>15.43260293140811</v>
+        <v>9.078880098980287</v>
       </c>
       <c r="M29">
-        <v>93.99693140681065</v>
+        <v>55.29766259829788</v>
       </c>
       <c r="N29">
-        <v>0.2710549651927052</v>
+        <v>0.1594595247577791</v>
       </c>
       <c r="O29">
-        <v>4.283781646117143</v>
+        <v>2.520115375751545</v>
       </c>
       <c r="P29">
-        <v>296.0817179776908</v>
+        <v>174.18256848615</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1856,49 +1856,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>4.167326664611632</v>
+        <v>2.451605817207422</v>
       </c>
       <c r="C30">
-        <v>106.2156146660979</v>
+        <v>62.48581878760285</v>
       </c>
       <c r="D30">
-        <v>0.01105712167586553</v>
+        <v>0.006504818557258096</v>
       </c>
       <c r="E30">
-        <v>3.999375621072037</v>
+        <v>2.352801526474889</v>
       </c>
       <c r="F30">
-        <v>3.178428568855962</v>
+        <v>1.869844770067174</v>
       </c>
       <c r="G30">
-        <v>21.47847288951538</v>
+        <v>12.63561830365297</v>
       </c>
       <c r="H30">
-        <v>1.206313031022562</v>
+        <v>0.7096645600984208</v>
       </c>
       <c r="I30">
-        <v>33.99860901502915</v>
+        <v>20.00111686612262</v>
       </c>
       <c r="J30">
-        <v>3.150008703594033</v>
+        <v>1.853125584697795</v>
       </c>
       <c r="K30">
-        <v>15.86460356427099</v>
+        <v>9.333022706411954</v>
       </c>
       <c r="L30">
-        <v>11.50256119111163</v>
+        <v>6.76686715451947</v>
       </c>
       <c r="M30">
-        <v>70.05982465103899</v>
+        <v>41.21564914158849</v>
       </c>
       <c r="N30">
-        <v>0.2349143031670111</v>
+        <v>0.1381982547900752</v>
       </c>
       <c r="O30">
-        <v>3.712610759968191</v>
+        <v>2.184099992318006</v>
       </c>
       <c r="P30">
-        <v>278.7797207510314</v>
+        <v>164.0039382841094</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1906,49 +1906,49 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>4.040149393103044</v>
+        <v>2.376788418971119</v>
       </c>
       <c r="C31">
-        <v>102.9741572157974</v>
+        <v>60.57889461751795</v>
       </c>
       <c r="D31">
-        <v>0.01636454008028099</v>
+        <v>0.009627131464741983</v>
       </c>
       <c r="E31">
-        <v>5.919075919186615</v>
+        <v>3.482146259182837</v>
       </c>
       <c r="F31">
-        <v>2.480724736668067</v>
+        <v>1.459391040052428</v>
       </c>
       <c r="G31">
-        <v>16.76368615767054</v>
+        <v>9.861945993095009</v>
       </c>
       <c r="H31">
-        <v>1.828318187643571</v>
+        <v>1.075585348899169</v>
       </c>
       <c r="I31">
-        <v>51.52914178840356</v>
+        <v>30.3141927502171</v>
       </c>
       <c r="J31">
-        <v>1.502756445751282</v>
+        <v>0.8840599119659208</v>
       </c>
       <c r="K31">
-        <v>7.568434727909095</v>
+        <v>4.45245119938919</v>
       </c>
       <c r="L31">
-        <v>5.847135272148417</v>
+        <v>3.439824136880733</v>
       </c>
       <c r="M31">
-        <v>35.6137441976115</v>
+        <v>20.95128831364082</v>
       </c>
       <c r="N31">
-        <v>0.03614066202569401</v>
+        <v>0.02126126996770388</v>
       </c>
       <c r="O31">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="P31">
-        <v>236.691000130148</v>
+        <v>139.2434717746783</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1956,49 +1956,49 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>3.458767580492376</v>
+        <v>2.034766027033736</v>
       </c>
       <c r="C32">
-        <v>88.15606601442347</v>
+        <v>51.8615269828442</v>
       </c>
       <c r="D32">
-        <v>0.01990281901655796</v>
+        <v>0.01170867340306457</v>
       </c>
       <c r="E32">
-        <v>7.198876117929668</v>
+        <v>4.235042747654801</v>
       </c>
       <c r="F32">
-        <v>1.783020904480173</v>
+        <v>1.048937310037682</v>
       </c>
       <c r="G32">
-        <v>12.0488994258257</v>
+        <v>7.088273682537035</v>
       </c>
       <c r="H32">
-        <v>1.602134494326841</v>
+        <v>0.9425232438807151</v>
       </c>
       <c r="I32">
-        <v>45.15440259808561</v>
+        <v>26.56398333781909</v>
       </c>
       <c r="J32">
-        <v>1.560554770587869</v>
+        <v>0.9180622162723021</v>
       </c>
       <c r="K32">
-        <v>7.859528371290214</v>
+        <v>4.623699322442621</v>
       </c>
       <c r="L32">
-        <v>4.888588506222448</v>
+        <v>2.875918540670775</v>
       </c>
       <c r="M32">
-        <v>29.77542547669156</v>
+        <v>17.51665088517511</v>
       </c>
       <c r="N32">
-        <v>0.144562648102776</v>
+        <v>0.08504507987081551</v>
       </c>
       <c r="O32">
-        <v>2.28468354459581</v>
+        <v>1.344061533734158</v>
       </c>
       <c r="P32">
-        <v>205.9354132720711</v>
+        <v>121.1501995833761</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2006,49 +2006,49 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>2.51175111229453</v>
+        <v>1.477643615166979</v>
       </c>
       <c r="C33">
-        <v>64.01878464343559</v>
+        <v>37.66175235917641</v>
       </c>
       <c r="D33">
-        <v>0.0207873887506272</v>
+        <v>0.01222905888764522</v>
       </c>
       <c r="E33">
-        <v>7.518826167615429</v>
+        <v>4.423266869772793</v>
       </c>
       <c r="F33">
-        <v>2.015588848542805</v>
+        <v>1.185755220042598</v>
       </c>
       <c r="G33">
-        <v>13.62049500310732</v>
+        <v>8.012831119389693</v>
       </c>
       <c r="H33">
-        <v>1.602134494326841</v>
+        <v>0.9425232438807151</v>
       </c>
       <c r="I33">
-        <v>45.15440259808561</v>
+        <v>26.56398333781909</v>
       </c>
       <c r="J33">
-        <v>1.04036984705858</v>
+        <v>0.6120414775148684</v>
       </c>
       <c r="K33">
-        <v>5.239685580860143</v>
+        <v>3.082466214961748</v>
       </c>
       <c r="L33">
-        <v>3.067349650963103</v>
+        <v>1.804497907871859</v>
       </c>
       <c r="M33">
-        <v>18.68261990694374</v>
+        <v>10.99083977109026</v>
       </c>
       <c r="N33">
-        <v>0.144562648102776</v>
+        <v>0.08504507987081551</v>
       </c>
       <c r="O33">
-        <v>2.28468354459581</v>
+        <v>1.344061533734158</v>
       </c>
       <c r="P33">
-        <v>166.9220414346829</v>
+        <v>98.19893680917964</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2056,43 +2056,43 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>1.875864754751612</v>
+        <v>1.103556623985466</v>
       </c>
       <c r="C34">
-        <v>47.81149739193292</v>
+        <v>28.12713150875201</v>
       </c>
       <c r="D34">
-        <v>0.01592225521324636</v>
+        <v>0.009366938722451658</v>
       </c>
       <c r="E34">
-        <v>5.759100894343733</v>
+        <v>3.38803419812384</v>
       </c>
       <c r="F34">
-        <v>1.162839720313156</v>
+        <v>0.6840895500245757</v>
       </c>
       <c r="G34">
-        <v>7.857977886408064</v>
+        <v>4.622787184263283</v>
       </c>
       <c r="H34">
-        <v>1.055523902144742</v>
+        <v>0.620956490086118</v>
       </c>
       <c r="I34">
-        <v>29.74878288815052</v>
+        <v>17.50097725785729</v>
       </c>
       <c r="J34">
-        <v>0.6068824107841715</v>
+        <v>0.3570241952170064</v>
       </c>
       <c r="K34">
-        <v>3.05648325550175</v>
+        <v>1.798105292061019</v>
       </c>
       <c r="L34">
-        <v>3.067349650963103</v>
+        <v>1.804497907871859</v>
       </c>
       <c r="M34">
-        <v>18.68261990694374</v>
+        <v>10.99083977109026</v>
       </c>
       <c r="P34">
-        <v>120.7008449174508</v>
+        <v>71.00736691805517</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2100,49 +2100,49 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>1.308109078374005</v>
+        <v>0.7695503818591144</v>
       </c>
       <c r="C35">
-        <v>33.34070520309123</v>
+        <v>19.61407717801594</v>
       </c>
       <c r="D35">
-        <v>0.007961127606623181</v>
+        <v>0.004683469361225829</v>
       </c>
       <c r="E35">
-        <v>2.879550447171867</v>
+        <v>1.69401709906192</v>
       </c>
       <c r="F35">
-        <v>0.7752264802087713</v>
+        <v>0.4560597000163839</v>
       </c>
       <c r="G35">
-        <v>5.238651924272043</v>
+        <v>3.08185812284219</v>
       </c>
       <c r="H35">
-        <v>0.8670374910474667</v>
+        <v>0.5100714025707399</v>
       </c>
       <c r="I35">
-        <v>24.43650022955221</v>
+        <v>14.37580274752563</v>
       </c>
       <c r="J35">
-        <v>0.6357815732024655</v>
+        <v>0.3740253473701972</v>
       </c>
       <c r="K35">
-        <v>3.202030077192309</v>
+        <v>1.883729353587734</v>
       </c>
       <c r="L35">
-        <v>1.821238855259343</v>
+        <v>1.071420632798916</v>
       </c>
       <c r="M35">
-        <v>11.09280556974784</v>
+        <v>6.525811114084845</v>
       </c>
       <c r="N35">
-        <v>0.03614066202569401</v>
+        <v>0.02126126996770388</v>
       </c>
       <c r="O35">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="P35">
-        <v>86.2129096049008</v>
+        <v>50.71838320249608</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2150,49 +2150,49 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.7471664701129297</v>
+        <v>0.439552214638279</v>
       </c>
       <c r="C36">
-        <v>19.04356252051565</v>
+        <v>11.20317949924869</v>
       </c>
       <c r="D36">
-        <v>0.01724910981435023</v>
+        <v>0.01014751694932263</v>
       </c>
       <c r="E36">
-        <v>6.239025968872376</v>
+        <v>3.670370381300828</v>
       </c>
       <c r="F36">
-        <v>0.07752264802087711</v>
+        <v>0.04560597000163839</v>
       </c>
       <c r="G36">
-        <v>0.5238651924272043</v>
+        <v>0.308185812284219</v>
       </c>
       <c r="H36">
-        <v>0.4146701044140058</v>
+        <v>0.243947192533832</v>
       </c>
       <c r="I36">
-        <v>11.68702184891627</v>
+        <v>6.875383922729651</v>
       </c>
       <c r="J36">
-        <v>1.878445557189103</v>
+        <v>1.105074889957402</v>
       </c>
       <c r="K36">
-        <v>9.460543409886368</v>
+        <v>5.565563999236488</v>
       </c>
       <c r="L36">
-        <v>2.588076268000117</v>
+        <v>1.522545109766881</v>
       </c>
       <c r="M36">
-        <v>15.76346054648377</v>
+        <v>9.273521056857412</v>
       </c>
       <c r="N36">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O36">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P36">
-        <v>68.74426541874035</v>
+        <v>40.44171589220525</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2200,49 +2200,49 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.3951579507588135</v>
+        <v>0.2324683445199408</v>
       </c>
       <c r="C37">
-        <v>10.07167136343381</v>
+        <v>5.925085814192312</v>
       </c>
       <c r="D37">
-        <v>0.008845697340692422</v>
+        <v>0.005203854845806476</v>
       </c>
       <c r="E37">
-        <v>3.199500496857631</v>
+        <v>1.882241221179911</v>
       </c>
       <c r="F37">
-        <v>0.07752264802087711</v>
+        <v>0.04560597000163839</v>
       </c>
       <c r="G37">
-        <v>0.5238651924272043</v>
+        <v>0.308185812284219</v>
       </c>
       <c r="H37">
-        <v>0.1507891288778203</v>
+        <v>0.0887080700123026</v>
       </c>
       <c r="I37">
-        <v>4.249826126878644</v>
+        <v>2.500139608265327</v>
       </c>
       <c r="J37">
-        <v>1.184865659150049</v>
+        <v>0.6970472382808223</v>
       </c>
       <c r="K37">
-        <v>5.96741968931294</v>
+        <v>3.510586522595324</v>
       </c>
       <c r="L37">
-        <v>2.012948208444536</v>
+        <v>1.184201752040908</v>
       </c>
       <c r="M37">
-        <v>12.26046931393182</v>
+        <v>7.212738599777987</v>
       </c>
       <c r="N37">
-        <v>0.05421099303854103</v>
+        <v>0.03189190495155583</v>
       </c>
       <c r="O37">
-        <v>0.8567563292234285</v>
+        <v>0.5040230751503091</v>
       </c>
       <c r="P37">
-        <v>41.01384879769681</v>
+        <v>24.12812778809836</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2250,43 +2250,43 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.2838778381888031</v>
+        <v>0.167003121063176</v>
       </c>
       <c r="C38">
-        <v>7.235396094420839</v>
+        <v>4.256527165368039</v>
       </c>
       <c r="D38">
-        <v>0.002211424335173105</v>
+        <v>0.001300963711451619</v>
       </c>
       <c r="E38">
-        <v>0.7998751242144077</v>
+        <v>0.4705603052949778</v>
       </c>
       <c r="F38">
-        <v>0.1550452960417542</v>
+        <v>0.09121194000327677</v>
       </c>
       <c r="G38">
-        <v>1.047730384854409</v>
+        <v>0.6163716245684381</v>
       </c>
       <c r="J38">
-        <v>0.7513782228756409</v>
+        <v>0.4420299559829604</v>
       </c>
       <c r="K38">
-        <v>3.784217363954547</v>
+        <v>2.226225599694595</v>
       </c>
       <c r="L38">
-        <v>1.91709353185194</v>
+        <v>1.127811192419912</v>
       </c>
       <c r="M38">
-        <v>11.67663744183983</v>
+        <v>6.869274856931413</v>
       </c>
       <c r="N38">
-        <v>0.09035165506423504</v>
+        <v>0.05315317491925969</v>
       </c>
       <c r="O38">
-        <v>1.427927215372381</v>
+        <v>0.8400384585838486</v>
       </c>
       <c r="P38">
-        <v>29.17174159301397</v>
+        <v>17.16150835854135</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2294,43 +2294,43 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.2066630662014486</v>
+        <v>0.121578272133992</v>
       </c>
       <c r="C39">
-        <v>5.26736835673837</v>
+        <v>3.098751776387934</v>
       </c>
       <c r="D39">
-        <v>0.003095994069242348</v>
+        <v>0.001821349196032266</v>
       </c>
       <c r="E39">
-        <v>1.119825173900171</v>
+        <v>0.6587844274129693</v>
       </c>
       <c r="F39">
-        <v>0.3876132401043856</v>
+        <v>0.228029850008192</v>
       </c>
       <c r="G39">
-        <v>2.619325962136021</v>
+        <v>1.540929061421095</v>
       </c>
       <c r="J39">
-        <v>0.3467899490195265</v>
+        <v>0.2040138258382894</v>
       </c>
       <c r="K39">
-        <v>1.746561860286714</v>
+        <v>1.027488738320582</v>
       </c>
       <c r="L39">
-        <v>1.725384178666745</v>
+        <v>1.015030073177921</v>
       </c>
       <c r="M39">
-        <v>10.50897369765585</v>
+        <v>6.182347371238269</v>
       </c>
       <c r="N39">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O39">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P39">
-        <v>24.2352572528658</v>
+        <v>14.2574130718359</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2338,49 +2338,49 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.2089340889069589</v>
+        <v>0.1229142971024974</v>
       </c>
       <c r="C40">
-        <v>5.325251525493739</v>
+        <v>3.132803993710876</v>
       </c>
       <c r="D40">
-        <v>0.002653709202207727</v>
+        <v>0.001561156453741943</v>
       </c>
       <c r="E40">
-        <v>0.959850149057289</v>
+        <v>0.5646723663539736</v>
       </c>
       <c r="F40">
-        <v>0.1550452960417542</v>
+        <v>0.09121194000327677</v>
       </c>
       <c r="G40">
-        <v>1.047730384854409</v>
+        <v>0.6163716245684381</v>
       </c>
       <c r="H40">
-        <v>0.1696377699875478</v>
+        <v>0.09979657876384039</v>
       </c>
       <c r="I40">
-        <v>4.781054392738475</v>
+        <v>2.812657059298493</v>
       </c>
       <c r="J40">
-        <v>0.5779832483658773</v>
+        <v>0.3400230430638157</v>
       </c>
       <c r="K40">
-        <v>2.91093643381119</v>
+        <v>1.712481230534304</v>
       </c>
       <c r="L40">
-        <v>1.533674825481552</v>
+        <v>0.9022489539359295</v>
       </c>
       <c r="M40">
-        <v>9.341309953471868</v>
+        <v>5.495419885545132</v>
       </c>
       <c r="N40">
-        <v>0.03614066202569401</v>
+        <v>0.02126126996770388</v>
       </c>
       <c r="O40">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="P40">
-        <v>27.62137332558751</v>
+        <v>16.24943878273556</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2388,49 +2388,49 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.53369033579495</v>
+        <v>0.3139658675987708</v>
       </c>
       <c r="C41">
-        <v>13.60254465751118</v>
+        <v>8.002271070891917</v>
       </c>
       <c r="D41">
-        <v>0.00353827893627697</v>
+        <v>0.002081541938322591</v>
       </c>
       <c r="E41">
-        <v>1.279800198743052</v>
+        <v>0.7528964884719646</v>
       </c>
       <c r="F41">
-        <v>0.3100905920835084</v>
+        <v>0.1824238800065535</v>
       </c>
       <c r="G41">
-        <v>2.095460769708817</v>
+        <v>1.232743249136876</v>
       </c>
       <c r="H41">
-        <v>0.1319404877680927</v>
+        <v>0.07761956126076475</v>
       </c>
       <c r="I41">
-        <v>3.718597861018814</v>
+        <v>2.187622157232161</v>
       </c>
       <c r="J41">
-        <v>0.5490840859475837</v>
+        <v>0.3230218909106249</v>
       </c>
       <c r="K41">
-        <v>2.765389612120631</v>
+        <v>1.626857169007589</v>
       </c>
       <c r="L41">
-        <v>2.396366914814924</v>
+        <v>1.40976399052489</v>
       </c>
       <c r="M41">
-        <v>14.59579680229979</v>
+        <v>8.586593571164268</v>
       </c>
       <c r="N41">
-        <v>0.018070331012847</v>
+        <v>0.01063063498385194</v>
       </c>
       <c r="O41">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="P41">
-        <v>42.28595637083495</v>
+        <v>24.87649876484532</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2438,49 +2438,49 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>1.237707374503181</v>
+        <v>0.7281336078354467</v>
       </c>
       <c r="C42">
-        <v>31.54632697167486</v>
+        <v>18.55845844100466</v>
       </c>
       <c r="D42">
-        <v>0.00707655787255394</v>
+        <v>0.004163083876645182</v>
       </c>
       <c r="E42">
-        <v>2.559600397486104</v>
+        <v>1.505792976943929</v>
       </c>
       <c r="F42">
-        <v>1.162839720313156</v>
+        <v>0.6840895500245757</v>
       </c>
       <c r="G42">
-        <v>7.857977886408064</v>
+        <v>4.622787184263283</v>
       </c>
       <c r="H42">
-        <v>0.7539456443891015</v>
+        <v>0.4435403500615129</v>
       </c>
       <c r="I42">
-        <v>21.24913063439322</v>
+        <v>12.50069804132664</v>
       </c>
       <c r="J42">
-        <v>1.4160589584964</v>
+        <v>0.8330564555063483</v>
       </c>
       <c r="K42">
-        <v>7.131794262837416</v>
+        <v>4.195579014809044</v>
       </c>
       <c r="L42">
-        <v>4.217605770074265</v>
+        <v>2.481184623323806</v>
       </c>
       <c r="M42">
-        <v>25.68860237204764</v>
+        <v>15.11240468524911</v>
       </c>
       <c r="N42">
-        <v>0.1084219860770821</v>
+        <v>0.06378380990311165</v>
       </c>
       <c r="O42">
-        <v>1.713512658446857</v>
+        <v>1.008046150300618</v>
       </c>
       <c r="P42">
-        <v>106.6506011950199</v>
+        <v>62.74171797442872</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2488,49 +2488,49 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>2.441349408423707</v>
+        <v>1.436226841143312</v>
       </c>
       <c r="C43">
-        <v>62.22440641201923</v>
+        <v>36.60613362216515</v>
       </c>
       <c r="D43">
-        <v>0.007518842739588562</v>
+        <v>0.004423276618935505</v>
       </c>
       <c r="E43">
-        <v>2.719575422328985</v>
+        <v>1.599905038002925</v>
       </c>
       <c r="F43">
-        <v>1.317885016354911</v>
+        <v>0.7753014900278525</v>
       </c>
       <c r="G43">
-        <v>8.905708271262474</v>
+        <v>5.239158808831721</v>
       </c>
       <c r="H43">
-        <v>1.319404877680928</v>
+        <v>0.7761956126076477</v>
       </c>
       <c r="I43">
-        <v>37.18597861018814</v>
+        <v>21.87622157232161</v>
       </c>
       <c r="J43">
-        <v>2.427529643136686</v>
+        <v>1.428096780868026</v>
       </c>
       <c r="K43">
-        <v>12.225933022007</v>
+        <v>7.192421168244076</v>
       </c>
       <c r="L43">
-        <v>5.272007212592832</v>
+        <v>3.101480779154758</v>
       </c>
       <c r="M43">
-        <v>32.11075296505955</v>
+        <v>18.89050585656138</v>
       </c>
       <c r="N43">
-        <v>0.1084219860770821</v>
+        <v>0.06378380990311165</v>
       </c>
       <c r="O43">
-        <v>1.713512658446857</v>
+        <v>1.008046150300618</v>
       </c>
       <c r="P43">
-        <v>169.979984348318</v>
+        <v>99.99790080675113</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2538,49 +2538,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>3.983373825465285</v>
+        <v>2.343387794758483</v>
       </c>
       <c r="C44">
-        <v>101.5270779969132</v>
+        <v>59.72758918444438</v>
       </c>
       <c r="D44">
-        <v>0.006191988138484697</v>
+        <v>0.003642698392064533</v>
       </c>
       <c r="E44">
-        <v>2.239650347800341</v>
+        <v>1.317568854825939</v>
       </c>
       <c r="F44">
-        <v>2.945860624793331</v>
+        <v>1.733026860062259</v>
       </c>
       <c r="G44">
-        <v>19.90687731223377</v>
+        <v>11.71106086680032</v>
       </c>
       <c r="H44">
-        <v>1.639831776546296</v>
+        <v>0.9647002613837908</v>
       </c>
       <c r="I44">
-        <v>46.21685912980525</v>
+        <v>27.18901823988543</v>
       </c>
       <c r="J44">
-        <v>3.236706190848914</v>
+        <v>1.904129041157368</v>
       </c>
       <c r="K44">
-        <v>16.30124402934266</v>
+        <v>9.589894890992104</v>
       </c>
       <c r="L44">
-        <v>8.626920893333725</v>
+        <v>5.075150365889604</v>
       </c>
       <c r="M44">
-        <v>52.54486848827925</v>
+        <v>30.91173685619138</v>
       </c>
       <c r="N44">
-        <v>0.2168439721541641</v>
+        <v>0.1275676198062233</v>
       </c>
       <c r="O44">
-        <v>3.427025316893714</v>
+        <v>2.016092300601236</v>
       </c>
       <c r="P44">
-        <v>262.8193318925484</v>
+        <v>154.6145658351905</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2588,49 +2588,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>4.646512455474327</v>
+        <v>2.733507085562062</v>
       </c>
       <c r="C45">
-        <v>118.4289632734803</v>
+        <v>69.67083664274409</v>
       </c>
       <c r="D45">
-        <v>0.009287982207727049</v>
+        <v>0.0054640475880968</v>
       </c>
       <c r="E45">
-        <v>3.359475521700511</v>
+        <v>1.976353282238907</v>
       </c>
       <c r="F45">
-        <v>3.333473864897716</v>
+        <v>1.961056710070451</v>
       </c>
       <c r="G45">
-        <v>22.52620327436979</v>
+        <v>13.25198992822141</v>
       </c>
       <c r="H45">
-        <v>1.413648083229565</v>
+        <v>0.831638156365337</v>
       </c>
       <c r="I45">
-        <v>39.8421199394873</v>
+        <v>23.43880882748744</v>
       </c>
       <c r="J45">
-        <v>3.236706190848914</v>
+        <v>1.904129041157368</v>
       </c>
       <c r="K45">
-        <v>16.30124402934266</v>
+        <v>9.589894890992104</v>
       </c>
       <c r="L45">
-        <v>10.06474104222267</v>
+        <v>5.921008760204536</v>
       </c>
       <c r="M45">
-        <v>61.30234656965913</v>
+        <v>36.06369299888993</v>
       </c>
       <c r="N45">
-        <v>0.4156176132954812</v>
+        <v>0.2445046046285946</v>
       </c>
       <c r="O45">
-        <v>6.568465190712952</v>
+        <v>3.864176909485704</v>
       </c>
       <c r="P45">
-        <v>291.4488050309291</v>
+        <v>171.4570618856361</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2638,49 +2638,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>3.910701098888953</v>
+        <v>2.300634995766309</v>
       </c>
       <c r="C46">
-        <v>99.67481659674141</v>
+        <v>58.63791823011012</v>
       </c>
       <c r="D46">
-        <v>0.01282626114400402</v>
+        <v>0.007545589526419391</v>
       </c>
       <c r="E46">
-        <v>4.639275720443563</v>
+        <v>2.729249770710871</v>
       </c>
       <c r="F46">
-        <v>4.186222993127363</v>
+        <v>2.462722380088473</v>
       </c>
       <c r="G46">
-        <v>28.28872039106904</v>
+        <v>16.64203386334783</v>
       </c>
       <c r="H46">
-        <v>1.262858954351745</v>
+        <v>0.7429300863530343</v>
       </c>
       <c r="I46">
-        <v>35.59229381260864</v>
+        <v>20.93866921922212</v>
       </c>
       <c r="J46">
-        <v>6.184420757514889</v>
+        <v>3.638246560782828</v>
       </c>
       <c r="K46">
-        <v>31.14701984177973</v>
+        <v>18.32354916671705</v>
       </c>
       <c r="L46">
-        <v>19.45849934829719</v>
+        <v>11.4472836030621</v>
       </c>
       <c r="M46">
-        <v>118.5178700346743</v>
+        <v>69.72313979785386</v>
       </c>
       <c r="N46">
-        <v>0.3252659582312463</v>
+        <v>0.1913514297093349</v>
       </c>
       <c r="O46">
-        <v>5.140537975340572</v>
+        <v>3.024138450901854</v>
       </c>
       <c r="P46">
-        <v>358.3413297442127</v>
+        <v>210.8094131441522</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2688,49 +2688,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>2.679806792502301</v>
+        <v>1.576509462836381</v>
       </c>
       <c r="C47">
-        <v>68.30213913133272</v>
+        <v>40.1816164410743</v>
       </c>
       <c r="D47">
-        <v>0.01592225521324636</v>
+        <v>0.009366938722451658</v>
       </c>
       <c r="E47">
-        <v>5.759100894343733</v>
+        <v>3.38803419812384</v>
       </c>
       <c r="F47">
-        <v>2.403202088647191</v>
+        <v>1.41378507005079</v>
       </c>
       <c r="G47">
-        <v>16.23982096524334</v>
+        <v>9.553760180810787</v>
       </c>
       <c r="H47">
-        <v>1.112069825473925</v>
+        <v>0.6542220163407315</v>
       </c>
       <c r="I47">
-        <v>31.34246768573</v>
+        <v>18.43852961095679</v>
       </c>
       <c r="J47">
-        <v>7.571580553592996</v>
+        <v>4.454301864135984</v>
       </c>
       <c r="K47">
-        <v>38.13326728292658</v>
+        <v>22.43350411999939</v>
       </c>
       <c r="L47">
-        <v>13.70721875274136</v>
+        <v>8.06385002580237</v>
       </c>
       <c r="M47">
-        <v>83.48795770915478</v>
+        <v>49.11531522705963</v>
       </c>
       <c r="N47">
-        <v>0.3071956272183992</v>
+        <v>0.180720794725483</v>
       </c>
       <c r="O47">
-        <v>4.854952532266095</v>
+        <v>2.856130759185085</v>
       </c>
       <c r="P47">
-        <v>275.9167020963867</v>
+        <v>162.319646709824</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2738,49 +2738,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>2.93870338093049</v>
+        <v>1.728816309245997</v>
       </c>
       <c r="C48">
-        <v>74.90082036944455</v>
+        <v>44.06356921588996</v>
       </c>
       <c r="D48">
-        <v>0.01813367954841947</v>
+        <v>0.01066790243390327</v>
       </c>
       <c r="E48">
-        <v>6.55897601855814</v>
+        <v>3.858594503418819</v>
       </c>
       <c r="F48">
-        <v>5.814198601565782</v>
+        <v>3.42044775012288</v>
       </c>
       <c r="G48">
-        <v>39.28988943204033</v>
+        <v>23.11393592131641</v>
       </c>
       <c r="H48">
-        <v>1.187464389912835</v>
+        <v>0.6985760513468828</v>
       </c>
       <c r="I48">
-        <v>33.46738074916932</v>
+        <v>19.68859941508945</v>
       </c>
       <c r="J48">
-        <v>7.311488091828352</v>
+        <v>4.301291494757268</v>
       </c>
       <c r="K48">
-        <v>36.82334588771155</v>
+        <v>21.66288756625895</v>
       </c>
       <c r="L48">
-        <v>17.92482452281562</v>
+        <v>10.54503464912618</v>
       </c>
       <c r="M48">
-        <v>109.1765600812025</v>
+        <v>64.22771991230873</v>
       </c>
       <c r="N48">
-        <v>0.4336879443083282</v>
+        <v>0.2551352396124466</v>
       </c>
       <c r="O48">
-        <v>6.854050633787428</v>
+        <v>4.032184601202473</v>
       </c>
       <c r="P48">
-        <v>342.6995237828236</v>
+        <v>201.6074605321303</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2788,49 +2788,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>2.473143726300853</v>
+        <v>1.454931190702388</v>
       </c>
       <c r="C49">
-        <v>63.03477077459436</v>
+        <v>37.08286466468636</v>
       </c>
       <c r="D49">
-        <v>0.01503768547917712</v>
+        <v>0.008846553237871009</v>
       </c>
       <c r="E49">
-        <v>5.439150844657971</v>
+        <v>3.19981007600585</v>
       </c>
       <c r="F49">
-        <v>3.798609753022978</v>
+        <v>2.234692530080282</v>
       </c>
       <c r="G49">
-        <v>25.66939442893302</v>
+        <v>15.10110480192673</v>
       </c>
       <c r="H49">
-        <v>1.262858954351745</v>
+        <v>0.7429300863530343</v>
       </c>
       <c r="I49">
-        <v>35.59229381260864</v>
+        <v>20.93866921922212</v>
       </c>
       <c r="J49">
-        <v>4.941756773528253</v>
+        <v>2.907197018195624</v>
       </c>
       <c r="K49">
-        <v>24.88850650908568</v>
+        <v>14.6417145210683</v>
       </c>
       <c r="L49">
-        <v>23.29268641200106</v>
+        <v>13.70290598790193</v>
       </c>
       <c r="M49">
-        <v>141.871144918354</v>
+        <v>83.4616895117167</v>
       </c>
       <c r="N49">
-        <v>0.2168439721541641</v>
+        <v>0.1275676198062233</v>
       </c>
       <c r="O49">
-        <v>3.427025316893714</v>
+        <v>2.016092300601236</v>
       </c>
       <c r="P49">
-        <v>335.9232238819656</v>
+        <v>197.6210160815046</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_PM10.xlsx
+++ b/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_PM10.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>1.632622511513607</v>
+        <v>2.775189746133739</v>
       </c>
       <c r="C2">
-        <v>41.61180956863795</v>
+        <v>70.73323221905815</v>
       </c>
       <c r="D2">
-        <v>0.005203854845806476</v>
+        <v>0.008845697340692422</v>
       </c>
       <c r="E2">
-        <v>1.882241221179911</v>
+        <v>3.199500496857631</v>
       </c>
       <c r="F2">
-        <v>1.550602980055705</v>
+        <v>2.635770032709822</v>
       </c>
       <c r="G2">
-        <v>10.47831761766344</v>
+        <v>17.81141654252495</v>
       </c>
       <c r="H2">
-        <v>0.5987794725830425</v>
+        <v>1.017826619925287</v>
       </c>
       <c r="I2">
-        <v>16.87594235579096</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="J2">
-        <v>2.550172822978618</v>
+        <v>4.334874362744081</v>
       </c>
       <c r="K2">
-        <v>12.84360922900728</v>
+        <v>21.83202325358392</v>
       </c>
       <c r="L2">
-        <v>11.27811192419912</v>
+        <v>19.17093531851939</v>
       </c>
       <c r="M2">
-        <v>68.69274856931415</v>
+        <v>116.7663744183983</v>
       </c>
       <c r="N2">
-        <v>0.09567571485466744</v>
+        <v>0.1626329791156231</v>
       </c>
       <c r="O2">
-        <v>1.512069225450927</v>
+        <v>2.570268987670286</v>
       </c>
       <c r="P2">
-        <v>171.6079070680751</v>
+        <v>291.7052170310127</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>1.632622511513607</v>
+        <v>2.775189746133739</v>
       </c>
       <c r="C3">
-        <v>41.61180956863795</v>
+        <v>70.73323221905815</v>
       </c>
       <c r="D3">
-        <v>0.007805782268709712</v>
+        <v>0.01326854601103864</v>
       </c>
       <c r="E3">
-        <v>2.823361831769867</v>
+        <v>4.799250745286445</v>
       </c>
       <c r="F3">
-        <v>1.869844770067174</v>
+        <v>3.178428568855962</v>
       </c>
       <c r="G3">
-        <v>12.63561830365297</v>
+        <v>21.47847288951538</v>
       </c>
       <c r="H3">
-        <v>0.587690963831505</v>
+        <v>0.9989779788155593</v>
       </c>
       <c r="I3">
-        <v>16.56342490475778</v>
+        <v>28.15509809057102</v>
       </c>
       <c r="J3">
-        <v>3.02620508326796</v>
+        <v>5.144050910456309</v>
       </c>
       <c r="K3">
-        <v>15.24108295175531</v>
+        <v>25.9073342609196</v>
       </c>
       <c r="L3">
-        <v>10.77059688761016</v>
+        <v>18.30824322918601</v>
       </c>
       <c r="M3">
-        <v>65.60157488369501</v>
+        <v>111.5118875695704</v>
       </c>
       <c r="N3">
-        <v>0.06378380990311165</v>
+        <v>0.1084219860770821</v>
       </c>
       <c r="O3">
-        <v>1.008046150300618</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="P3">
-        <v>173.4434684030317</v>
+        <v>294.8253693989035</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>1.933228129427323</v>
+        <v>3.286169854873586</v>
       </c>
       <c r="C4">
-        <v>49.27355846630044</v>
+        <v>83.7569451890156</v>
       </c>
       <c r="D4">
-        <v>0.006504818557258096</v>
+        <v>0.01105712167586553</v>
       </c>
       <c r="E4">
-        <v>2.352801526474889</v>
+        <v>3.999375621072037</v>
       </c>
       <c r="F4">
-        <v>2.097874620075365</v>
+        <v>3.566041808960347</v>
       </c>
       <c r="G4">
-        <v>14.17654736507407</v>
+        <v>24.09779885165141</v>
       </c>
       <c r="H4">
-        <v>0.6763990338438073</v>
+        <v>1.14976710769338</v>
       </c>
       <c r="I4">
-        <v>19.06356451302313</v>
+        <v>32.40492421744965</v>
       </c>
       <c r="J4">
-        <v>3.400230430638158</v>
+        <v>5.779832483658776</v>
       </c>
       <c r="K4">
-        <v>17.12481230534304</v>
+        <v>29.1093643381119</v>
       </c>
       <c r="L4">
-        <v>6.541304916035488</v>
+        <v>11.11914248474124</v>
       </c>
       <c r="M4">
-        <v>39.84179417020221</v>
+        <v>67.72449716267104</v>
       </c>
       <c r="N4">
-        <v>0.1913514297093349</v>
+        <v>0.3252659582312463</v>
       </c>
       <c r="O4">
-        <v>3.024138450901854</v>
+        <v>5.140537975340572</v>
       </c>
       <c r="P4">
-        <v>159.7041101756064</v>
+        <v>271.4707201751467</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>2.213793372813459</v>
+        <v>3.763084623030774</v>
       </c>
       <c r="C5">
-        <v>56.42452410411874</v>
+        <v>95.91241062764266</v>
       </c>
       <c r="D5">
-        <v>0.004163083876645182</v>
+        <v>0.00707655787255394</v>
       </c>
       <c r="E5">
-        <v>1.505792976943929</v>
+        <v>2.559600397486104</v>
       </c>
       <c r="F5">
-        <v>2.143480590077004</v>
+        <v>3.643564456981225</v>
       </c>
       <c r="G5">
-        <v>14.48473317735829</v>
+        <v>24.62166404407862</v>
       </c>
       <c r="H5">
-        <v>0.7318415776014966</v>
+        <v>1.244010313242017</v>
       </c>
       <c r="I5">
-        <v>20.62615176818895</v>
+        <v>35.06106554674881</v>
       </c>
       <c r="J5">
-        <v>2.465167062212664</v>
+        <v>4.190378550652613</v>
       </c>
       <c r="K5">
-        <v>12.4154889213737</v>
+        <v>21.10428914513113</v>
       </c>
       <c r="L5">
-        <v>4.511244769679648</v>
+        <v>7.668374127407759</v>
       </c>
       <c r="M5">
-        <v>27.47709942772565</v>
+        <v>46.70654976735933</v>
       </c>
       <c r="N5">
-        <v>0.08504507987081551</v>
+        <v>0.144562648102776</v>
       </c>
       <c r="O5">
-        <v>1.344061533734158</v>
+        <v>2.28468354459581</v>
       </c>
       <c r="P5">
-        <v>146.4325874455752</v>
+        <v>248.9113143503322</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>2.668041862105297</v>
+        <v>4.535232342904319</v>
       </c>
       <c r="C6">
-        <v>68.00227799391983</v>
+        <v>115.5926880044673</v>
       </c>
       <c r="D6">
-        <v>0.009106745980161337</v>
+        <v>0.01547997034621174</v>
       </c>
       <c r="E6">
-        <v>3.293922137064845</v>
+        <v>5.599125869500852</v>
       </c>
       <c r="F6">
-        <v>2.143480590077004</v>
+        <v>3.643564456981225</v>
       </c>
       <c r="G6">
-        <v>14.48473317735829</v>
+        <v>24.62166404407862</v>
       </c>
       <c r="H6">
-        <v>0.632044998837656</v>
+        <v>1.07437254325447</v>
       </c>
       <c r="I6">
-        <v>17.81349470889045</v>
+        <v>30.28001115401034</v>
       </c>
       <c r="J6">
-        <v>1.853125584697795</v>
+        <v>3.150008703594033</v>
       </c>
       <c r="K6">
-        <v>9.333022706411954</v>
+        <v>15.86460356427099</v>
       </c>
       <c r="L6">
-        <v>2.199231825218828</v>
+        <v>3.73833238711128</v>
       </c>
       <c r="M6">
-        <v>13.39508597101626</v>
+        <v>22.76944301158766</v>
       </c>
       <c r="N6">
-        <v>0.2551352396124466</v>
+        <v>0.4336879443083282</v>
       </c>
       <c r="O6">
-        <v>4.032184601202473</v>
+        <v>6.854050633787428</v>
       </c>
       <c r="P6">
-        <v>140.1148881423933</v>
+        <v>238.172264630203</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>2.499702716073617</v>
+        <v>4.249083482010005</v>
       </c>
       <c r="C7">
-        <v>63.71169861122883</v>
+        <v>108.2994087412911</v>
       </c>
       <c r="D7">
-        <v>0.004943662103516153</v>
+        <v>0.008403412473657805</v>
       </c>
       <c r="E7">
-        <v>1.788129160120916</v>
+        <v>3.039525472014748</v>
       </c>
       <c r="F7">
-        <v>1.459391040052428</v>
+        <v>2.480724736668067</v>
       </c>
       <c r="G7">
-        <v>9.861945993095009</v>
+        <v>16.76368615767054</v>
       </c>
       <c r="H7">
-        <v>0.9092577176261014</v>
+        <v>1.545588570997658</v>
       </c>
       <c r="I7">
-        <v>25.6264309847196</v>
+        <v>43.56071780050612</v>
       </c>
       <c r="J7">
-        <v>1.08807373780421</v>
+        <v>1.849546394770808</v>
       </c>
       <c r="K7">
-        <v>5.479939937709772</v>
+        <v>9.314996588195806</v>
       </c>
       <c r="L7">
-        <v>1.127811192419912</v>
+        <v>1.91709353185194</v>
       </c>
       <c r="M7">
-        <v>6.869274856931413</v>
+        <v>11.67663744183983</v>
       </c>
       <c r="N7">
-        <v>0.06378380990311165</v>
+        <v>0.1084219860770821</v>
       </c>
       <c r="O7">
-        <v>1.008046150300618</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="P7">
-        <v>121.4984295700891</v>
+        <v>206.5273469748143</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>1.865090856033548</v>
+        <v>3.170347696892554</v>
       </c>
       <c r="C8">
-        <v>47.53689538283027</v>
+        <v>80.80490358249192</v>
       </c>
       <c r="D8">
-        <v>0.004163083876645182</v>
+        <v>0.00707655787255394</v>
       </c>
       <c r="E8">
-        <v>1.505792976943929</v>
+        <v>2.559600397486104</v>
       </c>
       <c r="F8">
-        <v>1.368179100049151</v>
+        <v>2.325679440626312</v>
       </c>
       <c r="G8">
-        <v>9.245574368526567</v>
+        <v>15.71595577281613</v>
       </c>
       <c r="H8">
-        <v>0.7540185951045721</v>
+        <v>1.281707595461472</v>
       </c>
       <c r="I8">
-        <v>21.25118667025528</v>
+        <v>36.12352207846848</v>
       </c>
       <c r="J8">
-        <v>0.8330564555063483</v>
+        <v>1.4160589584964</v>
       </c>
       <c r="K8">
-        <v>4.195579014809044</v>
+        <v>7.131794262837416</v>
       </c>
       <c r="L8">
-        <v>1.466154550145885</v>
+        <v>2.492221591407522</v>
       </c>
       <c r="M8">
-        <v>8.93005731401084</v>
+        <v>15.17962867439178</v>
       </c>
       <c r="N8">
-        <v>0.05315317491925969</v>
+        <v>0.09035165506423504</v>
       </c>
       <c r="O8">
-        <v>0.8400384585838486</v>
+        <v>1.427927215372381</v>
       </c>
       <c r="P8">
-        <v>99.84894000159518</v>
+        <v>169.7267754796853</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>1.472299515292959</v>
+        <v>2.502667021472488</v>
       </c>
       <c r="C9">
-        <v>37.52554348988465</v>
+        <v>63.78725196841412</v>
       </c>
       <c r="D9">
-        <v>0.005724240330387123</v>
+        <v>0.009730267074761668</v>
       </c>
       <c r="E9">
-        <v>2.070465343297903</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="F9">
-        <v>1.003331340036045</v>
+        <v>1.705498256459297</v>
       </c>
       <c r="G9">
-        <v>6.780087870252815</v>
+        <v>11.5250342333985</v>
       </c>
       <c r="H9">
-        <v>0.7983726301107231</v>
+        <v>1.357102159900383</v>
       </c>
       <c r="I9">
-        <v>22.50125647438794</v>
+        <v>38.2484351419078</v>
       </c>
       <c r="J9">
-        <v>0.5270357167489141</v>
+        <v>0.8958740349671099</v>
       </c>
       <c r="K9">
-        <v>2.654345907328171</v>
+        <v>4.511951472407344</v>
       </c>
       <c r="L9">
-        <v>1.127811192419912</v>
+        <v>1.91709353185194</v>
       </c>
       <c r="M9">
-        <v>6.869274856931413</v>
+        <v>11.67663744183983</v>
       </c>
       <c r="N9">
-        <v>0.03189190495155583</v>
+        <v>0.05421099303854103</v>
       </c>
       <c r="O9">
-        <v>0.5040230751503091</v>
+        <v>0.8567563292234285</v>
       </c>
       <c r="P9">
-        <v>83.8714635571237</v>
+        <v>142.5676933984989</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>1.088860349331907</v>
+        <v>1.850883504990997</v>
       </c>
       <c r="C10">
-        <v>27.75255711819962</v>
+        <v>47.17478253562387</v>
       </c>
       <c r="D10">
-        <v>0.003902891134354856</v>
+        <v>0.00663427300551932</v>
       </c>
       <c r="E10">
-        <v>1.411680915884934</v>
+        <v>2.399625372643222</v>
       </c>
       <c r="F10">
-        <v>0.2736358200098302</v>
+        <v>0.4651358881252627</v>
       </c>
       <c r="G10">
-        <v>1.849114873705313</v>
+        <v>3.143191154563227</v>
       </c>
       <c r="H10">
-        <v>0.6098679813345803</v>
+        <v>1.036675261035015</v>
       </c>
       <c r="I10">
-        <v>17.18845980682413</v>
+        <v>29.21755462229068</v>
       </c>
       <c r="J10">
-        <v>0.5100345645957237</v>
+        <v>0.8669748725488162</v>
       </c>
       <c r="K10">
-        <v>2.568721845801456</v>
+        <v>4.366404650716785</v>
       </c>
       <c r="L10">
-        <v>1.071420632798916</v>
+        <v>1.821238855259343</v>
       </c>
       <c r="M10">
-        <v>6.525811114084845</v>
+        <v>11.09280556974784</v>
       </c>
       <c r="N10">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O10">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P10">
-        <v>61.03270624040622</v>
+        <v>103.7455623346379</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.6466360847566172</v>
+        <v>1.099174989467045</v>
       </c>
       <c r="C11">
-        <v>16.48127318430504</v>
+        <v>28.0154536775975</v>
       </c>
       <c r="D11">
-        <v>0.003642698392064533</v>
+        <v>0.006191988138484697</v>
       </c>
       <c r="E11">
-        <v>1.317568854825939</v>
+        <v>2.239650347800341</v>
       </c>
       <c r="F11">
-        <v>0.5016656700180224</v>
+        <v>0.8527491282296484</v>
       </c>
       <c r="G11">
-        <v>3.390043935126407</v>
+        <v>5.76251711669925</v>
       </c>
       <c r="H11">
-        <v>0.3548322800492104</v>
+        <v>0.6031565155112811</v>
       </c>
       <c r="I11">
-        <v>10.00055843306131</v>
+        <v>16.99930450751458</v>
       </c>
       <c r="J11">
-        <v>0.4930334124425327</v>
+        <v>0.8380757101305223</v>
       </c>
       <c r="K11">
-        <v>2.483097784274741</v>
+        <v>4.220857829026225</v>
       </c>
       <c r="L11">
-        <v>0.9022489539359295</v>
+        <v>1.533674825481552</v>
       </c>
       <c r="M11">
-        <v>5.495419885545132</v>
+        <v>9.341309953471868</v>
       </c>
       <c r="N11">
-        <v>0.02126126996770388</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O11">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P11">
-        <v>42.42729783013419</v>
+        <v>72.11942813724293</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,43 +980,43 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.4048155654571385</v>
+        <v>0.6881198797696586</v>
       </c>
       <c r="C12">
-        <v>10.31782184885213</v>
+        <v>17.53860013287612</v>
       </c>
       <c r="D12">
-        <v>0.003122312907483885</v>
+        <v>0.005307418404415455</v>
       </c>
       <c r="E12">
-        <v>1.129344732707947</v>
+        <v>1.919700298114578</v>
       </c>
       <c r="F12">
-        <v>0.09121194000327677</v>
+        <v>0.1550452960417542</v>
       </c>
       <c r="G12">
-        <v>0.6163716245684381</v>
+        <v>1.047730384854409</v>
       </c>
       <c r="H12">
-        <v>0.1995931575276808</v>
+        <v>0.3392755399750957</v>
       </c>
       <c r="I12">
-        <v>5.625314118596985</v>
+        <v>9.56210878547695</v>
       </c>
       <c r="J12">
-        <v>0.1870126736850986</v>
+        <v>0.3178907866012328</v>
       </c>
       <c r="K12">
-        <v>0.9418646767938671</v>
+        <v>1.601015038596155</v>
       </c>
       <c r="L12">
-        <v>0.6202961558309515</v>
+        <v>1.054401442518566</v>
       </c>
       <c r="M12">
-        <v>3.778101171312278</v>
+        <v>6.42215059301191</v>
       </c>
       <c r="P12">
-        <v>23.91486997824327</v>
+        <v>40.65134559624083</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,43 +1024,43 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.2378124443939624</v>
+        <v>0.4042420415808556</v>
       </c>
       <c r="C13">
-        <v>6.061294683484095</v>
+        <v>10.30320403845528</v>
       </c>
       <c r="D13">
-        <v>0.001561156453741943</v>
+        <v>0.002653709202207727</v>
       </c>
       <c r="E13">
-        <v>0.5646723663539736</v>
+        <v>0.959850149057289</v>
       </c>
       <c r="F13">
-        <v>0.09121194000327677</v>
+        <v>0.1550452960417542</v>
       </c>
       <c r="G13">
-        <v>0.6163716245684381</v>
+        <v>1.047730384854409</v>
       </c>
       <c r="H13">
-        <v>0.09979657876384039</v>
+        <v>0.1696377699875478</v>
       </c>
       <c r="I13">
-        <v>2.812657059298493</v>
+        <v>4.781054392738475</v>
       </c>
       <c r="J13">
-        <v>0.4930334124425327</v>
+        <v>0.8380757101305223</v>
       </c>
       <c r="K13">
-        <v>2.483097784274741</v>
+        <v>4.220857829026225</v>
       </c>
       <c r="L13">
-        <v>0.9022489539359295</v>
+        <v>1.533674825481552</v>
       </c>
       <c r="M13">
-        <v>5.495419885545132</v>
+        <v>9.341309953471868</v>
       </c>
       <c r="P13">
-        <v>19.85917788951816</v>
+        <v>33.75733610002798</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1068,43 +1068,43 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.144290696598584</v>
+        <v>0.2452704521951258</v>
       </c>
       <c r="C14">
-        <v>3.677639470877988</v>
+        <v>6.251382225579604</v>
       </c>
       <c r="D14">
-        <v>0.001300963711451619</v>
+        <v>0.002211424335173105</v>
       </c>
       <c r="E14">
-        <v>0.4705603052949778</v>
+        <v>0.7998751242144077</v>
       </c>
       <c r="F14">
-        <v>0.1368179100049151</v>
+        <v>0.2325679440626313</v>
       </c>
       <c r="G14">
-        <v>0.9245574368526567</v>
+        <v>1.571595577281613</v>
       </c>
       <c r="H14">
-        <v>0.01108850875153783</v>
+        <v>0.01884864110972754</v>
       </c>
       <c r="I14">
-        <v>0.3125174510331659</v>
+        <v>0.5312282658598305</v>
       </c>
       <c r="J14">
-        <v>0.5100345645957237</v>
+        <v>0.8669748725488162</v>
       </c>
       <c r="K14">
-        <v>2.568721845801456</v>
+        <v>4.366404650716785</v>
       </c>
       <c r="L14">
-        <v>0.7330772750729425</v>
+        <v>1.246110795703761</v>
       </c>
       <c r="M14">
-        <v>4.46502865700542</v>
+        <v>7.589814337195892</v>
       </c>
       <c r="P14">
-        <v>13.95563508560082</v>
+        <v>23.72228431080337</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1112,49 +1112,49 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.1269223720080137</v>
+        <v>0.2157471570234903</v>
       </c>
       <c r="C15">
-        <v>3.234960645679711</v>
+        <v>5.498901031759837</v>
       </c>
       <c r="D15">
-        <v>0.002341734680612914</v>
+        <v>0.00398056380331159</v>
       </c>
       <c r="E15">
-        <v>0.8470085495309601</v>
+        <v>1.439775223585933</v>
       </c>
       <c r="F15">
-        <v>0.09121194000327677</v>
+        <v>0.1550452960417542</v>
       </c>
       <c r="G15">
-        <v>0.6163716245684381</v>
+        <v>1.047730384854409</v>
       </c>
       <c r="H15">
-        <v>0.03326552625461347</v>
+        <v>0.05654592332918261</v>
       </c>
       <c r="I15">
-        <v>0.9375523530994976</v>
+        <v>1.593684797579491</v>
       </c>
       <c r="J15">
-        <v>0.3060207387574342</v>
+        <v>0.5201849235292898</v>
       </c>
       <c r="K15">
-        <v>1.541233107480874</v>
+        <v>2.619842790430071</v>
       </c>
       <c r="L15">
-        <v>0.7330772750729425</v>
+        <v>1.246110795703761</v>
       </c>
       <c r="M15">
-        <v>4.46502865700542</v>
+        <v>7.589814337195892</v>
       </c>
       <c r="N15">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O15">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P15">
-        <v>13.11363285084241</v>
+        <v>22.29101899892375</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1162,43 +1162,43 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.1122260973544541</v>
+        <v>0.1907659072628758</v>
       </c>
       <c r="C16">
-        <v>2.860386255127325</v>
+        <v>4.862186175450804</v>
       </c>
       <c r="D16">
-        <v>0.0007805782268709713</v>
+        <v>0.001326854601103864</v>
       </c>
       <c r="E16">
-        <v>0.2823361831769868</v>
+        <v>0.4799250745286445</v>
       </c>
       <c r="F16">
-        <v>0.09121194000327677</v>
+        <v>0.1550452960417542</v>
       </c>
       <c r="G16">
-        <v>0.6163716245684381</v>
+        <v>1.047730384854409</v>
       </c>
       <c r="H16">
-        <v>0.0887080700123026</v>
+        <v>0.1507891288778203</v>
       </c>
       <c r="I16">
-        <v>2.500139608265327</v>
+        <v>4.249826126878644</v>
       </c>
       <c r="J16">
-        <v>0.2720184344510525</v>
+        <v>0.462386598692702</v>
       </c>
       <c r="K16">
-        <v>1.369984984427443</v>
+        <v>2.328749147048951</v>
       </c>
       <c r="L16">
-        <v>0.7330772750729425</v>
+        <v>1.246110795703761</v>
       </c>
       <c r="M16">
-        <v>4.46502865700542</v>
+        <v>7.589814337195892</v>
       </c>
       <c r="P16">
-        <v>13.39226970769184</v>
+        <v>22.76465582713736</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1206,49 +1206,49 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.2899174181656734</v>
+        <v>0.4928119270957619</v>
       </c>
       <c r="C17">
-        <v>7.389331159078918</v>
+        <v>12.56064761991458</v>
       </c>
       <c r="D17">
-        <v>0.002341734680612914</v>
+        <v>0.00398056380331159</v>
       </c>
       <c r="E17">
-        <v>0.8470085495309601</v>
+        <v>1.439775223585933</v>
       </c>
       <c r="F17">
-        <v>0.3648477600131071</v>
+        <v>0.6201811841670168</v>
       </c>
       <c r="G17">
-        <v>2.465486498273752</v>
+        <v>4.190921539417634</v>
       </c>
       <c r="H17">
-        <v>0.06653105250922695</v>
+        <v>0.1130918466583652</v>
       </c>
       <c r="I17">
-        <v>1.875104706198995</v>
+        <v>3.187369595158982</v>
       </c>
       <c r="J17">
-        <v>0.6630449339744403</v>
+        <v>1.127067334313461</v>
       </c>
       <c r="K17">
-        <v>3.339338399541893</v>
+        <v>5.67632604593182</v>
       </c>
       <c r="L17">
-        <v>1.296982871282899</v>
+        <v>2.20465756162973</v>
       </c>
       <c r="M17">
-        <v>7.89966608547113</v>
+        <v>13.42813305811581</v>
       </c>
       <c r="N17">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O17">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P17">
-        <v>26.67823949542223</v>
+        <v>45.34861927387972</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1256,49 +1256,49 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.7588621821110708</v>
+        <v>1.289940896729921</v>
       </c>
       <c r="C18">
-        <v>19.34165943943238</v>
+        <v>32.87763985304829</v>
       </c>
       <c r="D18">
-        <v>0.001821349196032266</v>
+        <v>0.003095994069242348</v>
       </c>
       <c r="E18">
-        <v>0.6587844274129693</v>
+        <v>1.119825173900171</v>
       </c>
       <c r="F18">
-        <v>0.8209074600294911</v>
+        <v>1.395407664375789</v>
       </c>
       <c r="G18">
-        <v>5.547344621115943</v>
+        <v>9.429573463689678</v>
       </c>
       <c r="H18">
-        <v>0.3991863150553616</v>
+        <v>0.6785510799501914</v>
       </c>
       <c r="I18">
-        <v>11.25062823719397</v>
+        <v>19.1242175709539</v>
       </c>
       <c r="J18">
-        <v>0.7820529990467763</v>
+        <v>1.329361471241518</v>
       </c>
       <c r="K18">
-        <v>3.938706830228899</v>
+        <v>6.695153797765736</v>
       </c>
       <c r="L18">
-        <v>2.875918540670775</v>
+        <v>4.888588506222448</v>
       </c>
       <c r="M18">
-        <v>17.51665088517511</v>
+        <v>29.77542547669156</v>
       </c>
       <c r="N18">
-        <v>0.04252253993540776</v>
+        <v>0.07228132405138801</v>
       </c>
       <c r="O18">
-        <v>0.6720307668670789</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="P18">
-        <v>64.60707659347126</v>
+        <v>109.8214040449877</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1306,49 +1306,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>1.46027529057641</v>
+        <v>2.482227817122896</v>
       </c>
       <c r="C19">
-        <v>37.21907353397815</v>
+        <v>63.26630344961578</v>
       </c>
       <c r="D19">
-        <v>0.004423276618935505</v>
+        <v>0.007518842739588562</v>
       </c>
       <c r="E19">
-        <v>1.599905038002925</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="F19">
-        <v>1.185755220042598</v>
+        <v>2.015588848542805</v>
       </c>
       <c r="G19">
-        <v>8.012831119389693</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="H19">
-        <v>0.7872841213591855</v>
+        <v>1.338253518790655</v>
       </c>
       <c r="I19">
-        <v>22.18873902335478</v>
+        <v>37.71720687604797</v>
       </c>
       <c r="J19">
-        <v>1.496101389480789</v>
+        <v>2.543126292809862</v>
       </c>
       <c r="K19">
-        <v>7.534917414350937</v>
+        <v>12.80812030876924</v>
       </c>
       <c r="L19">
-        <v>4.060120292711685</v>
+        <v>6.901536714666982</v>
       </c>
       <c r="M19">
-        <v>24.72938948495308</v>
+        <v>42.03589479062339</v>
       </c>
       <c r="N19">
-        <v>0.06378380990311165</v>
+        <v>0.1084219860770821</v>
       </c>
       <c r="O19">
-        <v>1.008046150300618</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="P19">
-        <v>111.3506451650229</v>
+        <v>189.2777825296894</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1356,49 +1356,49 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>2.51306296575867</v>
+        <v>4.271793709065109</v>
       </c>
       <c r="C20">
-        <v>64.05222078445827</v>
+        <v>108.8782404288448</v>
       </c>
       <c r="D20">
-        <v>0.004943662103516153</v>
+        <v>0.008403412473657805</v>
       </c>
       <c r="E20">
-        <v>1.788129160120916</v>
+        <v>3.039525472014748</v>
       </c>
       <c r="F20">
-        <v>1.596208950057344</v>
+        <v>2.713292680730699</v>
       </c>
       <c r="G20">
-        <v>10.78650342994766</v>
+        <v>18.33528173495215</v>
       </c>
       <c r="H20">
-        <v>0.9536117526322527</v>
+        <v>1.620983135436568</v>
       </c>
       <c r="I20">
-        <v>26.87650078885226</v>
+        <v>45.68563086394543</v>
       </c>
       <c r="J20">
-        <v>1.853125584697795</v>
+        <v>3.150008703594033</v>
       </c>
       <c r="K20">
-        <v>9.333022706411954</v>
+        <v>15.86460356427099</v>
       </c>
       <c r="L20">
-        <v>5.695446521720557</v>
+        <v>9.681322335852295</v>
       </c>
       <c r="M20">
-        <v>34.68983802750365</v>
+        <v>58.96701908129115</v>
       </c>
       <c r="N20">
-        <v>0.06378380990311165</v>
+        <v>0.1084219860770821</v>
       </c>
       <c r="O20">
-        <v>1.008046150300618</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="P20">
-        <v>161.2144442944686</v>
+        <v>274.0380397669956</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1406,49 +1406,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>2.813668583672386</v>
+        <v>4.782773817804955</v>
       </c>
       <c r="C21">
-        <v>71.71396968212076</v>
+        <v>121.9019533988023</v>
       </c>
       <c r="D21">
-        <v>0.0054640475880968</v>
+        <v>0.009287982207727049</v>
       </c>
       <c r="E21">
-        <v>1.976353282238907</v>
+        <v>3.359475521700511</v>
       </c>
       <c r="F21">
-        <v>2.097874620075365</v>
+        <v>3.566041808960347</v>
       </c>
       <c r="G21">
-        <v>14.17654736507407</v>
+        <v>24.09779885165141</v>
       </c>
       <c r="H21">
-        <v>0.8094611388622611</v>
+        <v>1.37595080101011</v>
       </c>
       <c r="I21">
-        <v>22.81377392542111</v>
+        <v>38.77966340776763</v>
       </c>
       <c r="J21">
-        <v>2.108142866995657</v>
+        <v>3.58349613986844</v>
       </c>
       <c r="K21">
-        <v>10.61738362931269</v>
+        <v>18.04780588962938</v>
       </c>
       <c r="L21">
-        <v>6.823257714140466</v>
+        <v>11.59841586770423</v>
       </c>
       <c r="M21">
-        <v>41.55911288443507</v>
+        <v>70.643656523131</v>
       </c>
       <c r="N21">
-        <v>0.4358560343379295</v>
+        <v>0.7408835715267275</v>
       </c>
       <c r="O21">
-        <v>6.888315360387558</v>
+        <v>11.70900316605352</v>
       </c>
       <c r="P21">
-        <v>184.8391811346623</v>
+        <v>314.1962067478183</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1456,49 +1456,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>1.965292728671453</v>
+        <v>3.340674399805835</v>
       </c>
       <c r="C22">
-        <v>50.0908116820511</v>
+        <v>85.14614123914447</v>
       </c>
       <c r="D22">
-        <v>0.008586360495580689</v>
+        <v>0.0145954006121425</v>
       </c>
       <c r="E22">
-        <v>3.105698014946854</v>
+        <v>5.27917581981509</v>
       </c>
       <c r="F22">
-        <v>2.097874620075365</v>
+        <v>3.566041808960347</v>
       </c>
       <c r="G22">
-        <v>14.17654736507407</v>
+        <v>24.09779885165141</v>
       </c>
       <c r="H22">
-        <v>0.7318415776014966</v>
+        <v>1.244010313242017</v>
       </c>
       <c r="I22">
-        <v>20.62615176818895</v>
+        <v>35.06106554674881</v>
       </c>
       <c r="J22">
-        <v>2.890195866042434</v>
+        <v>4.91285761110996</v>
       </c>
       <c r="K22">
-        <v>14.55609045954158</v>
+        <v>24.74295968739512</v>
       </c>
       <c r="L22">
-        <v>12.18036087813505</v>
+        <v>20.70461014400093</v>
       </c>
       <c r="M22">
-        <v>74.18816845485929</v>
+        <v>126.1076843718702</v>
       </c>
       <c r="N22">
-        <v>0.06378380990311165</v>
+        <v>0.1084219860770821</v>
       </c>
       <c r="O22">
-        <v>1.008046150300618</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="P22">
-        <v>197.689449735887</v>
+        <v>336.0395498388802</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1506,49 +1506,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>1.382785842403096</v>
+        <v>2.350508500203289</v>
       </c>
       <c r="C23">
-        <v>35.24404492924737</v>
+        <v>59.90907966180455</v>
       </c>
       <c r="D23">
-        <v>0.006244625814967771</v>
+        <v>0.01061483680883091</v>
       </c>
       <c r="E23">
-        <v>2.258689465415894</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="F23">
-        <v>1.68742089006062</v>
+        <v>2.868337976772453</v>
       </c>
       <c r="G23">
-        <v>11.4028750545161</v>
+        <v>19.38301211980656</v>
       </c>
       <c r="H23">
-        <v>0.5987794725830425</v>
+        <v>1.017826619925287</v>
       </c>
       <c r="I23">
-        <v>16.87594235579096</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="J23">
-        <v>3.655247712936019</v>
+        <v>6.213319919933184</v>
       </c>
       <c r="K23">
-        <v>18.40917322824377</v>
+        <v>31.29256666347029</v>
       </c>
       <c r="L23">
-        <v>11.16533080495713</v>
+        <v>18.97922596533419</v>
       </c>
       <c r="M23">
-        <v>68.00582108362102</v>
+        <v>115.5987106742144</v>
       </c>
       <c r="N23">
-        <v>0.1275676198062233</v>
+        <v>0.2168439721541641</v>
       </c>
       <c r="O23">
-        <v>2.016092300601236</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="P23">
-        <v>172.8360153859974</v>
+        <v>293.7927991799809</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1556,49 +1556,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>1.557805113277304</v>
+        <v>2.648012474625156</v>
       </c>
       <c r="C24">
-        <v>39.70488539855307</v>
+        <v>67.49177476875764</v>
       </c>
       <c r="D24">
-        <v>0.009627131464741983</v>
+        <v>0.01636454008028099</v>
       </c>
       <c r="E24">
-        <v>3.482146259182837</v>
+        <v>5.919075919186615</v>
       </c>
       <c r="F24">
-        <v>1.368179100049151</v>
+        <v>2.325679440626312</v>
       </c>
       <c r="G24">
-        <v>9.245574368526567</v>
+        <v>15.71595577281613</v>
       </c>
       <c r="H24">
-        <v>0.5655139463284291</v>
+        <v>0.9612806965961043</v>
       </c>
       <c r="I24">
-        <v>15.93839000269146</v>
+        <v>27.09264155885136</v>
       </c>
       <c r="J24">
-        <v>3.383229278484966</v>
+        <v>5.750933321240482</v>
       </c>
       <c r="K24">
-        <v>17.03918824381633</v>
+        <v>28.96381751642134</v>
       </c>
       <c r="L24">
-        <v>13.98485878600691</v>
+        <v>23.77195979496404</v>
       </c>
       <c r="M24">
-        <v>85.17900822594953</v>
+        <v>144.7903042788139</v>
       </c>
       <c r="N24">
-        <v>0.2763965095801505</v>
+        <v>0.4698286063340222</v>
       </c>
       <c r="O24">
-        <v>4.368199984636012</v>
+        <v>7.425221519936382</v>
       </c>
       <c r="P24">
-        <v>196.1030023485475</v>
+        <v>333.3428502092497</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1606,49 +1606,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>1.454931190702388</v>
+        <v>2.473143726300853</v>
       </c>
       <c r="C25">
-        <v>37.08286466468636</v>
+        <v>63.03477077459436</v>
       </c>
       <c r="D25">
-        <v>0.008846553237871009</v>
+        <v>0.01503768547917712</v>
       </c>
       <c r="E25">
-        <v>3.19981007600585</v>
+        <v>5.439150844657971</v>
       </c>
       <c r="F25">
-        <v>2.234692530080282</v>
+        <v>3.798609753022978</v>
       </c>
       <c r="G25">
-        <v>15.10110480192673</v>
+        <v>25.66939442893302</v>
       </c>
       <c r="H25">
-        <v>0.7429300863530343</v>
+        <v>1.262858954351745</v>
       </c>
       <c r="I25">
-        <v>20.93866921922212</v>
+        <v>35.59229381260864</v>
       </c>
       <c r="J25">
-        <v>2.907197018195624</v>
+        <v>4.941756773528253</v>
       </c>
       <c r="K25">
-        <v>14.6417145210683</v>
+        <v>24.88850650908568</v>
       </c>
       <c r="L25">
-        <v>13.70290598790193</v>
+        <v>23.29268641200106</v>
       </c>
       <c r="M25">
-        <v>83.4616895117167</v>
+        <v>141.871144918354</v>
       </c>
       <c r="N25">
-        <v>0.1275676198062233</v>
+        <v>0.2168439721541641</v>
       </c>
       <c r="O25">
-        <v>2.016092300601236</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="P25">
-        <v>197.6210160815046</v>
+        <v>335.9232238819656</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1656,49 +1656,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>1.481651690072497</v>
+        <v>2.518564180411063</v>
       </c>
       <c r="C26">
-        <v>37.76390901114526</v>
+        <v>64.19243414970165</v>
       </c>
       <c r="D26">
-        <v>0.0054640475880968</v>
+        <v>0.009287982207727049</v>
       </c>
       <c r="E26">
-        <v>1.976353282238907</v>
+        <v>3.359475521700511</v>
       </c>
       <c r="F26">
-        <v>1.596208950057344</v>
+        <v>2.713292680730699</v>
       </c>
       <c r="G26">
-        <v>10.78650342994766</v>
+        <v>18.33528173495215</v>
       </c>
       <c r="H26">
-        <v>0.5211599113222776</v>
+        <v>0.8858861321571943</v>
       </c>
       <c r="I26">
-        <v>14.6883201985588</v>
+        <v>24.96772849541203</v>
       </c>
       <c r="J26">
-        <v>2.941199322502005</v>
+        <v>4.999555098364839</v>
       </c>
       <c r="K26">
-        <v>14.81296264412173</v>
+        <v>25.17960015246679</v>
       </c>
       <c r="L26">
-        <v>14.99988885918483</v>
+        <v>25.4973439736308</v>
       </c>
       <c r="M26">
-        <v>91.36135559718784</v>
+        <v>155.2992779764698</v>
       </c>
       <c r="N26">
-        <v>0.1275676198062233</v>
+        <v>0.2168439721541641</v>
       </c>
       <c r="O26">
-        <v>2.016092300601236</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="P26">
-        <v>195.0786368643347</v>
+        <v>331.6015973672531</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1706,49 +1706,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>1.679383385411295</v>
+        <v>2.854675540826602</v>
       </c>
       <c r="C27">
-        <v>42.803637174941</v>
+        <v>72.75914312549592</v>
       </c>
       <c r="D27">
-        <v>0.003902891134354856</v>
+        <v>0.00663427300551932</v>
       </c>
       <c r="E27">
-        <v>1.411680915884934</v>
+        <v>2.399625372643222</v>
       </c>
       <c r="F27">
-        <v>3.146811930113049</v>
+        <v>5.349062713440524</v>
       </c>
       <c r="G27">
-        <v>21.2648210476111</v>
+        <v>36.14669827747713</v>
       </c>
       <c r="H27">
-        <v>0.5766024550799668</v>
+        <v>0.9801293377058319</v>
       </c>
       <c r="I27">
-        <v>16.25090745372463</v>
+        <v>27.62386982471118</v>
       </c>
       <c r="J27">
-        <v>2.941199322502005</v>
+        <v>4.999555098364839</v>
       </c>
       <c r="K27">
-        <v>14.81296264412173</v>
+        <v>25.17960015246679</v>
       </c>
       <c r="L27">
-        <v>9.473614016327264</v>
+        <v>16.10358566755628</v>
       </c>
       <c r="M27">
-        <v>57.7019087982239</v>
+        <v>98.08375451145459</v>
       </c>
       <c r="N27">
-        <v>0.2126126996770387</v>
+        <v>0.3614066202569401</v>
       </c>
       <c r="O27">
-        <v>3.360153834335394</v>
+        <v>5.711708861489523</v>
       </c>
       <c r="P27">
-        <v>175.6401985690877</v>
+        <v>298.5594493768949</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1756,49 +1756,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>1.748856683773578</v>
+        <v>2.972768721513146</v>
       </c>
       <c r="C28">
-        <v>44.57435247573411</v>
+        <v>75.76906790077501</v>
       </c>
       <c r="D28">
-        <v>0.007285396784129066</v>
+        <v>0.01238397627696939</v>
       </c>
       <c r="E28">
-        <v>2.635137709651877</v>
+        <v>4.479300695600682</v>
       </c>
       <c r="F28">
-        <v>1.550602980055705</v>
+        <v>2.635770032709822</v>
       </c>
       <c r="G28">
-        <v>10.47831761766344</v>
+        <v>17.81141654252495</v>
       </c>
       <c r="H28">
-        <v>0.5433369288253534</v>
+        <v>0.923583414376649</v>
       </c>
       <c r="I28">
-        <v>15.31335510062513</v>
+        <v>26.0301850271317</v>
       </c>
       <c r="J28">
-        <v>3.145213148340296</v>
+        <v>5.346345047384368</v>
       </c>
       <c r="K28">
-        <v>15.84045138244231</v>
+        <v>26.92616201275351</v>
       </c>
       <c r="L28">
-        <v>12.06757975889306</v>
+        <v>20.51290079081574</v>
       </c>
       <c r="M28">
-        <v>73.50124096916616</v>
+        <v>124.9400206276862</v>
       </c>
       <c r="N28">
-        <v>0.1594595247577791</v>
+        <v>0.2710549651927052</v>
       </c>
       <c r="O28">
-        <v>2.520115375751545</v>
+        <v>4.283781646117143</v>
       </c>
       <c r="P28">
-        <v>184.0853050524645</v>
+        <v>312.9147414008586</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1806,49 +1806,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>1.834362281757923</v>
+        <v>3.118114174665815</v>
       </c>
       <c r="C29">
-        <v>46.75369438440257</v>
+        <v>79.47359070111848</v>
       </c>
       <c r="D29">
-        <v>0.003642698392064533</v>
+        <v>0.006191988138484697</v>
       </c>
       <c r="E29">
-        <v>1.317568854825939</v>
+        <v>2.239650347800341</v>
       </c>
       <c r="F29">
-        <v>2.371510440085197</v>
+        <v>4.031177697085609</v>
       </c>
       <c r="G29">
-        <v>16.02566223877939</v>
+        <v>27.24099000621463</v>
       </c>
       <c r="H29">
-        <v>0.7429300863530343</v>
+        <v>1.262858954351745</v>
       </c>
       <c r="I29">
-        <v>20.93866921922212</v>
+        <v>35.59229381260864</v>
       </c>
       <c r="J29">
-        <v>2.839192409582861</v>
+        <v>4.826160123855078</v>
       </c>
       <c r="K29">
-        <v>14.29921827496144</v>
+        <v>24.30631922232344</v>
       </c>
       <c r="L29">
-        <v>9.078880098980287</v>
+        <v>15.43260293140811</v>
       </c>
       <c r="M29">
-        <v>55.29766259829788</v>
+        <v>93.99693140681065</v>
       </c>
       <c r="N29">
-        <v>0.1594595247577791</v>
+        <v>0.2710549651927052</v>
       </c>
       <c r="O29">
-        <v>2.520115375751545</v>
+        <v>4.283781646117143</v>
       </c>
       <c r="P29">
-        <v>174.18256848615</v>
+        <v>296.0817179776908</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1856,49 +1856,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>2.451605817207422</v>
+        <v>4.167326664611632</v>
       </c>
       <c r="C30">
-        <v>62.48581878760285</v>
+        <v>106.2156146660979</v>
       </c>
       <c r="D30">
-        <v>0.006504818557258096</v>
+        <v>0.01105712167586553</v>
       </c>
       <c r="E30">
-        <v>2.352801526474889</v>
+        <v>3.999375621072037</v>
       </c>
       <c r="F30">
-        <v>1.869844770067174</v>
+        <v>3.178428568855962</v>
       </c>
       <c r="G30">
-        <v>12.63561830365297</v>
+        <v>21.47847288951538</v>
       </c>
       <c r="H30">
-        <v>0.7096645600984208</v>
+        <v>1.206313031022562</v>
       </c>
       <c r="I30">
-        <v>20.00111686612262</v>
+        <v>33.99860901502915</v>
       </c>
       <c r="J30">
-        <v>1.853125584697795</v>
+        <v>3.150008703594033</v>
       </c>
       <c r="K30">
-        <v>9.333022706411954</v>
+        <v>15.86460356427099</v>
       </c>
       <c r="L30">
-        <v>6.76686715451947</v>
+        <v>11.50256119111163</v>
       </c>
       <c r="M30">
-        <v>41.21564914158849</v>
+        <v>70.05982465103899</v>
       </c>
       <c r="N30">
-        <v>0.1381982547900752</v>
+        <v>0.2349143031670111</v>
       </c>
       <c r="O30">
-        <v>2.184099992318006</v>
+        <v>3.712610759968191</v>
       </c>
       <c r="P30">
-        <v>164.0039382841094</v>
+        <v>278.7797207510314</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1906,49 +1906,49 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>2.376788418971119</v>
+        <v>4.040149393103044</v>
       </c>
       <c r="C31">
-        <v>60.57889461751795</v>
+        <v>102.9741572157974</v>
       </c>
       <c r="D31">
-        <v>0.009627131464741983</v>
+        <v>0.01636454008028099</v>
       </c>
       <c r="E31">
-        <v>3.482146259182837</v>
+        <v>5.919075919186615</v>
       </c>
       <c r="F31">
-        <v>1.459391040052428</v>
+        <v>2.480724736668067</v>
       </c>
       <c r="G31">
-        <v>9.861945993095009</v>
+        <v>16.76368615767054</v>
       </c>
       <c r="H31">
-        <v>1.075585348899169</v>
+        <v>1.828318187643571</v>
       </c>
       <c r="I31">
-        <v>30.3141927502171</v>
+        <v>51.52914178840356</v>
       </c>
       <c r="J31">
-        <v>0.8840599119659208</v>
+        <v>1.502756445751282</v>
       </c>
       <c r="K31">
-        <v>4.45245119938919</v>
+        <v>7.568434727909095</v>
       </c>
       <c r="L31">
-        <v>3.439824136880733</v>
+        <v>5.847135272148417</v>
       </c>
       <c r="M31">
-        <v>20.95128831364082</v>
+        <v>35.6137441976115</v>
       </c>
       <c r="N31">
-        <v>0.02126126996770388</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O31">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P31">
-        <v>139.2434717746783</v>
+        <v>236.691000130148</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1956,49 +1956,49 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>2.034766027033736</v>
+        <v>3.458767580492376</v>
       </c>
       <c r="C32">
-        <v>51.8615269828442</v>
+        <v>88.15606601442347</v>
       </c>
       <c r="D32">
-        <v>0.01170867340306457</v>
+        <v>0.01990281901655796</v>
       </c>
       <c r="E32">
-        <v>4.235042747654801</v>
+        <v>7.198876117929668</v>
       </c>
       <c r="F32">
-        <v>1.048937310037682</v>
+        <v>1.783020904480173</v>
       </c>
       <c r="G32">
-        <v>7.088273682537035</v>
+        <v>12.0488994258257</v>
       </c>
       <c r="H32">
-        <v>0.9425232438807151</v>
+        <v>1.602134494326841</v>
       </c>
       <c r="I32">
-        <v>26.56398333781909</v>
+        <v>45.15440259808561</v>
       </c>
       <c r="J32">
-        <v>0.9180622162723021</v>
+        <v>1.560554770587869</v>
       </c>
       <c r="K32">
-        <v>4.623699322442621</v>
+        <v>7.859528371290214</v>
       </c>
       <c r="L32">
-        <v>2.875918540670775</v>
+        <v>4.888588506222448</v>
       </c>
       <c r="M32">
-        <v>17.51665088517511</v>
+        <v>29.77542547669156</v>
       </c>
       <c r="N32">
-        <v>0.08504507987081551</v>
+        <v>0.144562648102776</v>
       </c>
       <c r="O32">
-        <v>1.344061533734158</v>
+        <v>2.28468354459581</v>
       </c>
       <c r="P32">
-        <v>121.1501995833761</v>
+        <v>205.9354132720711</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2006,49 +2006,49 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>1.477643615166979</v>
+        <v>2.51175111229453</v>
       </c>
       <c r="C33">
-        <v>37.66175235917641</v>
+        <v>64.01878464343559</v>
       </c>
       <c r="D33">
-        <v>0.01222905888764522</v>
+        <v>0.0207873887506272</v>
       </c>
       <c r="E33">
-        <v>4.423266869772793</v>
+        <v>7.518826167615429</v>
       </c>
       <c r="F33">
-        <v>1.185755220042598</v>
+        <v>2.015588848542805</v>
       </c>
       <c r="G33">
-        <v>8.012831119389693</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="H33">
-        <v>0.9425232438807151</v>
+        <v>1.602134494326841</v>
       </c>
       <c r="I33">
-        <v>26.56398333781909</v>
+        <v>45.15440259808561</v>
       </c>
       <c r="J33">
-        <v>0.6120414775148684</v>
+        <v>1.04036984705858</v>
       </c>
       <c r="K33">
-        <v>3.082466214961748</v>
+        <v>5.239685580860143</v>
       </c>
       <c r="L33">
-        <v>1.804497907871859</v>
+        <v>3.067349650963103</v>
       </c>
       <c r="M33">
-        <v>10.99083977109026</v>
+        <v>18.68261990694374</v>
       </c>
       <c r="N33">
-        <v>0.08504507987081551</v>
+        <v>0.144562648102776</v>
       </c>
       <c r="O33">
-        <v>1.344061533734158</v>
+        <v>2.28468354459581</v>
       </c>
       <c r="P33">
-        <v>98.19893680917964</v>
+        <v>166.9220414346829</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2056,43 +2056,43 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>1.103556623985466</v>
+        <v>1.875864754751612</v>
       </c>
       <c r="C34">
-        <v>28.12713150875201</v>
+        <v>47.81149739193292</v>
       </c>
       <c r="D34">
-        <v>0.009366938722451658</v>
+        <v>0.01592225521324636</v>
       </c>
       <c r="E34">
-        <v>3.38803419812384</v>
+        <v>5.759100894343733</v>
       </c>
       <c r="F34">
-        <v>0.6840895500245757</v>
+        <v>1.162839720313156</v>
       </c>
       <c r="G34">
-        <v>4.622787184263283</v>
+        <v>7.857977886408064</v>
       </c>
       <c r="H34">
-        <v>0.620956490086118</v>
+        <v>1.055523902144742</v>
       </c>
       <c r="I34">
-        <v>17.50097725785729</v>
+        <v>29.74878288815052</v>
       </c>
       <c r="J34">
-        <v>0.3570241952170064</v>
+        <v>0.6068824107841715</v>
       </c>
       <c r="K34">
-        <v>1.798105292061019</v>
+        <v>3.05648325550175</v>
       </c>
       <c r="L34">
-        <v>1.804497907871859</v>
+        <v>3.067349650963103</v>
       </c>
       <c r="M34">
-        <v>10.99083977109026</v>
+        <v>18.68261990694374</v>
       </c>
       <c r="P34">
-        <v>71.00736691805517</v>
+        <v>120.7008449174508</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2100,49 +2100,49 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.7695503818591144</v>
+        <v>1.308109078374005</v>
       </c>
       <c r="C35">
-        <v>19.61407717801594</v>
+        <v>33.34070520309123</v>
       </c>
       <c r="D35">
-        <v>0.004683469361225829</v>
+        <v>0.007961127606623181</v>
       </c>
       <c r="E35">
-        <v>1.69401709906192</v>
+        <v>2.879550447171867</v>
       </c>
       <c r="F35">
-        <v>0.4560597000163839</v>
+        <v>0.7752264802087713</v>
       </c>
       <c r="G35">
-        <v>3.08185812284219</v>
+        <v>5.238651924272043</v>
       </c>
       <c r="H35">
-        <v>0.5100714025707399</v>
+        <v>0.8670374910474667</v>
       </c>
       <c r="I35">
-        <v>14.37580274752563</v>
+        <v>24.43650022955221</v>
       </c>
       <c r="J35">
-        <v>0.3740253473701972</v>
+        <v>0.6357815732024655</v>
       </c>
       <c r="K35">
-        <v>1.883729353587734</v>
+        <v>3.202030077192309</v>
       </c>
       <c r="L35">
-        <v>1.071420632798916</v>
+        <v>1.821238855259343</v>
       </c>
       <c r="M35">
-        <v>6.525811114084845</v>
+        <v>11.09280556974784</v>
       </c>
       <c r="N35">
-        <v>0.02126126996770388</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O35">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P35">
-        <v>50.71838320249608</v>
+        <v>86.2129096049008</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2150,49 +2150,49 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.439552214638279</v>
+        <v>0.7471664701129297</v>
       </c>
       <c r="C36">
-        <v>11.20317949924869</v>
+        <v>19.04356252051565</v>
       </c>
       <c r="D36">
-        <v>0.01014751694932263</v>
+        <v>0.01724910981435023</v>
       </c>
       <c r="E36">
-        <v>3.670370381300828</v>
+        <v>6.239025968872376</v>
       </c>
       <c r="F36">
-        <v>0.04560597000163839</v>
+        <v>0.07752264802087711</v>
       </c>
       <c r="G36">
-        <v>0.308185812284219</v>
+        <v>0.5238651924272043</v>
       </c>
       <c r="H36">
-        <v>0.243947192533832</v>
+        <v>0.4146701044140058</v>
       </c>
       <c r="I36">
-        <v>6.875383922729651</v>
+        <v>11.68702184891627</v>
       </c>
       <c r="J36">
-        <v>1.105074889957402</v>
+        <v>1.878445557189103</v>
       </c>
       <c r="K36">
-        <v>5.565563999236488</v>
+        <v>9.460543409886368</v>
       </c>
       <c r="L36">
-        <v>1.522545109766881</v>
+        <v>2.588076268000117</v>
       </c>
       <c r="M36">
-        <v>9.273521056857412</v>
+        <v>15.76346054648377</v>
       </c>
       <c r="N36">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O36">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P36">
-        <v>40.44171589220525</v>
+        <v>68.74426541874035</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2200,49 +2200,49 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.2324683445199408</v>
+        <v>0.3951579507588135</v>
       </c>
       <c r="C37">
-        <v>5.925085814192312</v>
+        <v>10.07167136343381</v>
       </c>
       <c r="D37">
-        <v>0.005203854845806476</v>
+        <v>0.008845697340692422</v>
       </c>
       <c r="E37">
-        <v>1.882241221179911</v>
+        <v>3.199500496857631</v>
       </c>
       <c r="F37">
-        <v>0.04560597000163839</v>
+        <v>0.07752264802087711</v>
       </c>
       <c r="G37">
-        <v>0.308185812284219</v>
+        <v>0.5238651924272043</v>
       </c>
       <c r="H37">
-        <v>0.0887080700123026</v>
+        <v>0.1507891288778203</v>
       </c>
       <c r="I37">
-        <v>2.500139608265327</v>
+        <v>4.249826126878644</v>
       </c>
       <c r="J37">
-        <v>0.6970472382808223</v>
+        <v>1.184865659150049</v>
       </c>
       <c r="K37">
-        <v>3.510586522595324</v>
+        <v>5.96741968931294</v>
       </c>
       <c r="L37">
-        <v>1.184201752040908</v>
+        <v>2.012948208444536</v>
       </c>
       <c r="M37">
-        <v>7.212738599777987</v>
+        <v>12.26046931393182</v>
       </c>
       <c r="N37">
-        <v>0.03189190495155583</v>
+        <v>0.05421099303854103</v>
       </c>
       <c r="O37">
-        <v>0.5040230751503091</v>
+        <v>0.8567563292234285</v>
       </c>
       <c r="P37">
-        <v>24.12812778809836</v>
+        <v>41.01384879769681</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2250,43 +2250,43 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.167003121063176</v>
+        <v>0.2838778381888031</v>
       </c>
       <c r="C38">
-        <v>4.256527165368039</v>
+        <v>7.235396094420839</v>
       </c>
       <c r="D38">
-        <v>0.001300963711451619</v>
+        <v>0.002211424335173105</v>
       </c>
       <c r="E38">
-        <v>0.4705603052949778</v>
+        <v>0.7998751242144077</v>
       </c>
       <c r="F38">
-        <v>0.09121194000327677</v>
+        <v>0.1550452960417542</v>
       </c>
       <c r="G38">
-        <v>0.6163716245684381</v>
+        <v>1.047730384854409</v>
       </c>
       <c r="J38">
-        <v>0.4420299559829604</v>
+        <v>0.7513782228756409</v>
       </c>
       <c r="K38">
-        <v>2.226225599694595</v>
+        <v>3.784217363954547</v>
       </c>
       <c r="L38">
-        <v>1.127811192419912</v>
+        <v>1.91709353185194</v>
       </c>
       <c r="M38">
-        <v>6.869274856931413</v>
+        <v>11.67663744183983</v>
       </c>
       <c r="N38">
-        <v>0.05315317491925969</v>
+        <v>0.09035165506423504</v>
       </c>
       <c r="O38">
-        <v>0.8400384585838486</v>
+        <v>1.427927215372381</v>
       </c>
       <c r="P38">
-        <v>17.16150835854135</v>
+        <v>29.17174159301397</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2294,43 +2294,43 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.121578272133992</v>
+        <v>0.2066630662014486</v>
       </c>
       <c r="C39">
-        <v>3.098751776387934</v>
+        <v>5.26736835673837</v>
       </c>
       <c r="D39">
-        <v>0.001821349196032266</v>
+        <v>0.003095994069242348</v>
       </c>
       <c r="E39">
-        <v>0.6587844274129693</v>
+        <v>1.119825173900171</v>
       </c>
       <c r="F39">
-        <v>0.228029850008192</v>
+        <v>0.3876132401043856</v>
       </c>
       <c r="G39">
-        <v>1.540929061421095</v>
+        <v>2.619325962136021</v>
       </c>
       <c r="J39">
-        <v>0.2040138258382894</v>
+        <v>0.3467899490195265</v>
       </c>
       <c r="K39">
-        <v>1.027488738320582</v>
+        <v>1.746561860286714</v>
       </c>
       <c r="L39">
-        <v>1.015030073177921</v>
+        <v>1.725384178666745</v>
       </c>
       <c r="M39">
-        <v>6.182347371238269</v>
+        <v>10.50897369765585</v>
       </c>
       <c r="N39">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O39">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P39">
-        <v>14.2574130718359</v>
+        <v>24.2352572528658</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2338,49 +2338,49 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.1229142971024974</v>
+        <v>0.2089340889069589</v>
       </c>
       <c r="C40">
-        <v>3.132803993710876</v>
+        <v>5.325251525493739</v>
       </c>
       <c r="D40">
-        <v>0.001561156453741943</v>
+        <v>0.002653709202207727</v>
       </c>
       <c r="E40">
-        <v>0.5646723663539736</v>
+        <v>0.959850149057289</v>
       </c>
       <c r="F40">
-        <v>0.09121194000327677</v>
+        <v>0.1550452960417542</v>
       </c>
       <c r="G40">
-        <v>0.6163716245684381</v>
+        <v>1.047730384854409</v>
       </c>
       <c r="H40">
-        <v>0.09979657876384039</v>
+        <v>0.1696377699875478</v>
       </c>
       <c r="I40">
-        <v>2.812657059298493</v>
+        <v>4.781054392738475</v>
       </c>
       <c r="J40">
-        <v>0.3400230430638157</v>
+        <v>0.5779832483658773</v>
       </c>
       <c r="K40">
-        <v>1.712481230534304</v>
+        <v>2.91093643381119</v>
       </c>
       <c r="L40">
-        <v>0.9022489539359295</v>
+        <v>1.533674825481552</v>
       </c>
       <c r="M40">
-        <v>5.495419885545132</v>
+        <v>9.341309953471868</v>
       </c>
       <c r="N40">
-        <v>0.02126126996770388</v>
+        <v>0.03614066202569401</v>
       </c>
       <c r="O40">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="P40">
-        <v>16.24943878273556</v>
+        <v>27.62137332558751</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2388,49 +2388,49 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.3139658675987708</v>
+        <v>0.53369033579495</v>
       </c>
       <c r="C41">
-        <v>8.002271070891917</v>
+        <v>13.60254465751118</v>
       </c>
       <c r="D41">
-        <v>0.002081541938322591</v>
+        <v>0.00353827893627697</v>
       </c>
       <c r="E41">
-        <v>0.7528964884719646</v>
+        <v>1.279800198743052</v>
       </c>
       <c r="F41">
-        <v>0.1824238800065535</v>
+        <v>0.3100905920835084</v>
       </c>
       <c r="G41">
-        <v>1.232743249136876</v>
+        <v>2.095460769708817</v>
       </c>
       <c r="H41">
-        <v>0.07761956126076475</v>
+        <v>0.1319404877680927</v>
       </c>
       <c r="I41">
-        <v>2.187622157232161</v>
+        <v>3.718597861018814</v>
       </c>
       <c r="J41">
-        <v>0.3230218909106249</v>
+        <v>0.5490840859475837</v>
       </c>
       <c r="K41">
-        <v>1.626857169007589</v>
+        <v>2.765389612120631</v>
       </c>
       <c r="L41">
-        <v>1.40976399052489</v>
+        <v>2.396366914814924</v>
       </c>
       <c r="M41">
-        <v>8.586593571164268</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="N41">
-        <v>0.01063063498385194</v>
+        <v>0.018070331012847</v>
       </c>
       <c r="O41">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="P41">
-        <v>24.87649876484532</v>
+        <v>42.28595637083495</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2438,49 +2438,49 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.7281336078354467</v>
+        <v>1.237707374503181</v>
       </c>
       <c r="C42">
-        <v>18.55845844100466</v>
+        <v>31.54632697167486</v>
       </c>
       <c r="D42">
-        <v>0.004163083876645182</v>
+        <v>0.00707655787255394</v>
       </c>
       <c r="E42">
-        <v>1.505792976943929</v>
+        <v>2.559600397486104</v>
       </c>
       <c r="F42">
-        <v>0.6840895500245757</v>
+        <v>1.162839720313156</v>
       </c>
       <c r="G42">
-        <v>4.622787184263283</v>
+        <v>7.857977886408064</v>
       </c>
       <c r="H42">
-        <v>0.4435403500615129</v>
+        <v>0.7539456443891015</v>
       </c>
       <c r="I42">
-        <v>12.50069804132664</v>
+        <v>21.24913063439322</v>
       </c>
       <c r="J42">
-        <v>0.8330564555063483</v>
+        <v>1.4160589584964</v>
       </c>
       <c r="K42">
-        <v>4.195579014809044</v>
+        <v>7.131794262837416</v>
       </c>
       <c r="L42">
-        <v>2.481184623323806</v>
+        <v>4.217605770074265</v>
       </c>
       <c r="M42">
-        <v>15.11240468524911</v>
+        <v>25.68860237204764</v>
       </c>
       <c r="N42">
-        <v>0.06378380990311165</v>
+        <v>0.1084219860770821</v>
       </c>
       <c r="O42">
-        <v>1.008046150300618</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="P42">
-        <v>62.74171797442872</v>
+        <v>106.6506011950199</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2488,49 +2488,49 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>1.436226841143312</v>
+        <v>2.441349408423707</v>
       </c>
       <c r="C43">
-        <v>36.60613362216515</v>
+        <v>62.22440641201923</v>
       </c>
       <c r="D43">
-        <v>0.004423276618935505</v>
+        <v>0.007518842739588562</v>
       </c>
       <c r="E43">
-        <v>1.599905038002925</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="F43">
-        <v>0.7753014900278525</v>
+        <v>1.317885016354911</v>
       </c>
       <c r="G43">
-        <v>5.239158808831721</v>
+        <v>8.905708271262474</v>
       </c>
       <c r="H43">
-        <v>0.7761956126076477</v>
+        <v>1.319404877680928</v>
       </c>
       <c r="I43">
-        <v>21.87622157232161</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="J43">
-        <v>1.428096780868026</v>
+        <v>2.427529643136686</v>
       </c>
       <c r="K43">
-        <v>7.192421168244076</v>
+        <v>12.225933022007</v>
       </c>
       <c r="L43">
-        <v>3.101480779154758</v>
+        <v>5.272007212592832</v>
       </c>
       <c r="M43">
-        <v>18.89050585656138</v>
+        <v>32.11075296505955</v>
       </c>
       <c r="N43">
-        <v>0.06378380990311165</v>
+        <v>0.1084219860770821</v>
       </c>
       <c r="O43">
-        <v>1.008046150300618</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="P43">
-        <v>99.99790080675113</v>
+        <v>169.979984348318</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2538,49 +2538,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>2.343387794758483</v>
+        <v>3.983373825465285</v>
       </c>
       <c r="C44">
-        <v>59.72758918444438</v>
+        <v>101.5270779969132</v>
       </c>
       <c r="D44">
-        <v>0.003642698392064533</v>
+        <v>0.006191988138484697</v>
       </c>
       <c r="E44">
-        <v>1.317568854825939</v>
+        <v>2.239650347800341</v>
       </c>
       <c r="F44">
-        <v>1.733026860062259</v>
+        <v>2.945860624793331</v>
       </c>
       <c r="G44">
-        <v>11.71106086680032</v>
+        <v>19.90687731223377</v>
       </c>
       <c r="H44">
-        <v>0.9647002613837908</v>
+        <v>1.639831776546296</v>
       </c>
       <c r="I44">
-        <v>27.18901823988543</v>
+        <v>46.21685912980525</v>
       </c>
       <c r="J44">
-        <v>1.904129041157368</v>
+        <v>3.236706190848914</v>
       </c>
       <c r="K44">
-        <v>9.589894890992104</v>
+        <v>16.30124402934266</v>
       </c>
       <c r="L44">
-        <v>5.075150365889604</v>
+        <v>8.626920893333725</v>
       </c>
       <c r="M44">
-        <v>30.91173685619138</v>
+        <v>52.54486848827925</v>
       </c>
       <c r="N44">
-        <v>0.1275676198062233</v>
+        <v>0.2168439721541641</v>
       </c>
       <c r="O44">
-        <v>2.016092300601236</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="P44">
-        <v>154.6145658351905</v>
+        <v>262.8193318925484</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2588,49 +2588,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>2.733507085562062</v>
+        <v>4.646512455474327</v>
       </c>
       <c r="C45">
-        <v>69.67083664274409</v>
+        <v>118.4289632734803</v>
       </c>
       <c r="D45">
-        <v>0.0054640475880968</v>
+        <v>0.009287982207727049</v>
       </c>
       <c r="E45">
-        <v>1.976353282238907</v>
+        <v>3.359475521700511</v>
       </c>
       <c r="F45">
-        <v>1.961056710070451</v>
+        <v>3.333473864897716</v>
       </c>
       <c r="G45">
-        <v>13.25198992822141</v>
+        <v>22.52620327436979</v>
       </c>
       <c r="H45">
-        <v>0.831638156365337</v>
+        <v>1.413648083229565</v>
       </c>
       <c r="I45">
-        <v>23.43880882748744</v>
+        <v>39.8421199394873</v>
       </c>
       <c r="J45">
-        <v>1.904129041157368</v>
+        <v>3.236706190848914</v>
       </c>
       <c r="K45">
-        <v>9.589894890992104</v>
+        <v>16.30124402934266</v>
       </c>
       <c r="L45">
-        <v>5.921008760204536</v>
+        <v>10.06474104222267</v>
       </c>
       <c r="M45">
-        <v>36.06369299888993</v>
+        <v>61.30234656965913</v>
       </c>
       <c r="N45">
-        <v>0.2445046046285946</v>
+        <v>0.4156176132954812</v>
       </c>
       <c r="O45">
-        <v>3.864176909485704</v>
+        <v>6.568465190712952</v>
       </c>
       <c r="P45">
-        <v>171.4570618856361</v>
+        <v>291.4488050309291</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2638,49 +2638,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>2.300634995766309</v>
+        <v>3.910701098888953</v>
       </c>
       <c r="C46">
-        <v>58.63791823011012</v>
+        <v>99.67481659674141</v>
       </c>
       <c r="D46">
-        <v>0.007545589526419391</v>
+        <v>0.01282626114400402</v>
       </c>
       <c r="E46">
-        <v>2.729249770710871</v>
+        <v>4.639275720443563</v>
       </c>
       <c r="F46">
-        <v>2.462722380088473</v>
+        <v>4.186222993127363</v>
       </c>
       <c r="G46">
-        <v>16.64203386334783</v>
+        <v>28.28872039106904</v>
       </c>
       <c r="H46">
-        <v>0.7429300863530343</v>
+        <v>1.262858954351745</v>
       </c>
       <c r="I46">
-        <v>20.93866921922212</v>
+        <v>35.59229381260864</v>
       </c>
       <c r="J46">
-        <v>3.638246560782828</v>
+        <v>6.184420757514889</v>
       </c>
       <c r="K46">
-        <v>18.32354916671705</v>
+        <v>31.14701984177973</v>
       </c>
       <c r="L46">
-        <v>11.4472836030621</v>
+        <v>19.45849934829719</v>
       </c>
       <c r="M46">
-        <v>69.72313979785386</v>
+        <v>118.5178700346743</v>
       </c>
       <c r="N46">
-        <v>0.1913514297093349</v>
+        <v>0.3252659582312463</v>
       </c>
       <c r="O46">
-        <v>3.024138450901854</v>
+        <v>5.140537975340572</v>
       </c>
       <c r="P46">
-        <v>210.8094131441522</v>
+        <v>358.3413297442127</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2688,49 +2688,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>1.576509462836381</v>
+        <v>2.679806792502301</v>
       </c>
       <c r="C47">
-        <v>40.1816164410743</v>
+        <v>68.30213913133272</v>
       </c>
       <c r="D47">
-        <v>0.009366938722451658</v>
+        <v>0.01592225521324636</v>
       </c>
       <c r="E47">
-        <v>3.38803419812384</v>
+        <v>5.759100894343733</v>
       </c>
       <c r="F47">
-        <v>1.41378507005079</v>
+        <v>2.403202088647191</v>
       </c>
       <c r="G47">
-        <v>9.553760180810787</v>
+        <v>16.23982096524334</v>
       </c>
       <c r="H47">
-        <v>0.6542220163407315</v>
+        <v>1.112069825473925</v>
       </c>
       <c r="I47">
-        <v>18.43852961095679</v>
+        <v>31.34246768573</v>
       </c>
       <c r="J47">
-        <v>4.454301864135984</v>
+        <v>7.571580553592996</v>
       </c>
       <c r="K47">
-        <v>22.43350411999939</v>
+        <v>38.13326728292658</v>
       </c>
       <c r="L47">
-        <v>8.06385002580237</v>
+        <v>13.70721875274136</v>
       </c>
       <c r="M47">
-        <v>49.11531522705963</v>
+        <v>83.48795770915478</v>
       </c>
       <c r="N47">
-        <v>0.180720794725483</v>
+        <v>0.3071956272183992</v>
       </c>
       <c r="O47">
-        <v>2.856130759185085</v>
+        <v>4.854952532266095</v>
       </c>
       <c r="P47">
-        <v>162.319646709824</v>
+        <v>275.9167020963867</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2738,49 +2738,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>1.728816309245997</v>
+        <v>2.93870338093049</v>
       </c>
       <c r="C48">
-        <v>44.06356921588996</v>
+        <v>74.90082036944455</v>
       </c>
       <c r="D48">
-        <v>0.01066790243390327</v>
+        <v>0.01813367954841947</v>
       </c>
       <c r="E48">
-        <v>3.858594503418819</v>
+        <v>6.55897601855814</v>
       </c>
       <c r="F48">
-        <v>3.42044775012288</v>
+        <v>5.814198601565782</v>
       </c>
       <c r="G48">
-        <v>23.11393592131641</v>
+        <v>39.28988943204033</v>
       </c>
       <c r="H48">
-        <v>0.6985760513468828</v>
+        <v>1.187464389912835</v>
       </c>
       <c r="I48">
-        <v>19.68859941508945</v>
+        <v>33.46738074916932</v>
       </c>
       <c r="J48">
-        <v>4.301291494757268</v>
+        <v>7.311488091828352</v>
       </c>
       <c r="K48">
-        <v>21.66288756625895</v>
+        <v>36.82334588771155</v>
       </c>
       <c r="L48">
-        <v>10.54503464912618</v>
+        <v>17.92482452281562</v>
       </c>
       <c r="M48">
-        <v>64.22771991230873</v>
+        <v>109.1765600812025</v>
       </c>
       <c r="N48">
-        <v>0.2551352396124466</v>
+        <v>0.4336879443083282</v>
       </c>
       <c r="O48">
-        <v>4.032184601202473</v>
+        <v>6.854050633787428</v>
       </c>
       <c r="P48">
-        <v>201.6074605321303</v>
+        <v>342.6995237828236</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2788,49 +2788,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>1.454931190702388</v>
+        <v>2.473143726300853</v>
       </c>
       <c r="C49">
-        <v>37.08286466468636</v>
+        <v>63.03477077459436</v>
       </c>
       <c r="D49">
-        <v>0.008846553237871009</v>
+        <v>0.01503768547917712</v>
       </c>
       <c r="E49">
-        <v>3.19981007600585</v>
+        <v>5.439150844657971</v>
       </c>
       <c r="F49">
-        <v>2.234692530080282</v>
+        <v>3.798609753022978</v>
       </c>
       <c r="G49">
-        <v>15.10110480192673</v>
+        <v>25.66939442893302</v>
       </c>
       <c r="H49">
-        <v>0.7429300863530343</v>
+        <v>1.262858954351745</v>
       </c>
       <c r="I49">
-        <v>20.93866921922212</v>
+        <v>35.59229381260864</v>
       </c>
       <c r="J49">
-        <v>2.907197018195624</v>
+        <v>4.941756773528253</v>
       </c>
       <c r="K49">
-        <v>14.6417145210683</v>
+        <v>24.88850650908568</v>
       </c>
       <c r="L49">
-        <v>13.70290598790193</v>
+        <v>23.29268641200106</v>
       </c>
       <c r="M49">
-        <v>83.4616895117167</v>
+        <v>141.871144918354</v>
       </c>
       <c r="N49">
-        <v>0.1275676198062233</v>
+        <v>0.2168439721541641</v>
       </c>
       <c r="O49">
-        <v>2.016092300601236</v>
+        <v>3.427025316893714</v>
       </c>
       <c r="P49">
-        <v>197.6210160815046</v>
+        <v>335.9232238819656</v>
       </c>
     </row>
   </sheetData>
